--- a/Data/mappings/ei36/ei_iw_mapping.xlsx
+++ b/Data/mappings/ei36/ei_iw_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\ei36\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04745CCA-00F4-4945-B36F-D82479A057EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF895D-EAA3-4CB9-A85D-3B65ACD49F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1353</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1557">
   <si>
     <t>iw name</t>
   </si>
@@ -4688,6 +4688,12 @@
   </si>
   <si>
     <t>Yttrium</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Parathion, methyl</t>
   </si>
 </sst>
 </file>
@@ -5092,9 +5098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1421"/>
+  <dimension ref="A1:D1422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12116,10 +12124,10 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>21</v>
+        <v>1555</v>
       </c>
       <c r="B684" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C684">
         <v>3.5</v>
@@ -12127,10 +12135,10 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B685" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C685">
         <v>3.5</v>
@@ -12138,10 +12146,10 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B686" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C686">
         <v>3.5</v>
@@ -12149,10 +12157,10 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B687" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C687">
         <v>3.5</v>
@@ -12160,10 +12168,10 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>747</v>
+        <v>24</v>
       </c>
       <c r="B688" t="s">
-        <v>618</v>
+        <v>24</v>
       </c>
       <c r="C688">
         <v>3.5</v>
@@ -12171,10 +12179,10 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>25</v>
+        <v>747</v>
       </c>
       <c r="B689" t="s">
-        <v>25</v>
+        <v>618</v>
       </c>
       <c r="C689">
         <v>3.5</v>
@@ -12182,10 +12190,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B690" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C690">
         <v>3.5</v>
@@ -12193,10 +12201,10 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B691" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C691">
         <v>3.5</v>
@@ -12204,10 +12212,10 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B692" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C692">
         <v>3.5</v>
@@ -12215,10 +12223,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B693" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C693">
         <v>3.5</v>
@@ -12226,10 +12234,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B694" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C694">
         <v>3.5</v>
@@ -12237,10 +12245,10 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1064</v>
+        <v>30</v>
       </c>
       <c r="B695" t="s">
-        <v>676</v>
+        <v>30</v>
       </c>
       <c r="C695">
         <v>3.5</v>
@@ -12248,10 +12256,10 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>31</v>
+        <v>1064</v>
       </c>
       <c r="B696" t="s">
-        <v>31</v>
+        <v>676</v>
       </c>
       <c r="C696">
         <v>3.5</v>
@@ -12259,10 +12267,10 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1065</v>
+        <v>31</v>
       </c>
       <c r="B697" t="s">
-        <v>676</v>
+        <v>31</v>
       </c>
       <c r="C697">
         <v>3.5</v>
@@ -12270,10 +12278,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>703</v>
+        <v>1065</v>
       </c>
       <c r="B698" t="s">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="C698">
         <v>3.5</v>
@@ -12281,10 +12289,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B699" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C699">
         <v>3.5</v>
@@ -12292,10 +12300,10 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>32</v>
+        <v>704</v>
       </c>
       <c r="B700" t="s">
-        <v>32</v>
+        <v>572</v>
       </c>
       <c r="C700">
         <v>3.5</v>
@@ -12303,10 +12311,10 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B701" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C701">
         <v>3.5</v>
@@ -12314,7 +12322,10 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1066</v>
+        <v>33</v>
+      </c>
+      <c r="B702" t="s">
+        <v>33</v>
       </c>
       <c r="C702">
         <v>3.5</v>
@@ -12322,10 +12333,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>325</v>
-      </c>
-      <c r="B703" t="s">
-        <v>325</v>
+        <v>1066</v>
       </c>
       <c r="C703">
         <v>3.5</v>
@@ -12333,10 +12341,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B704" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C704">
         <v>3.5</v>
@@ -12344,10 +12352,10 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B705" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C705">
         <v>3.5</v>
@@ -12355,10 +12363,10 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B706" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C706">
         <v>3.5</v>
@@ -12366,10 +12374,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B707" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C707">
         <v>3.5</v>
@@ -12377,10 +12385,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B708" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C708">
         <v>3.5</v>
@@ -12388,10 +12396,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B709" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C709">
         <v>3.5</v>
@@ -12399,10 +12407,10 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B710" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C710">
         <v>3.5</v>
@@ -12410,7 +12418,10 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>1067</v>
+        <v>332</v>
+      </c>
+      <c r="B711" t="s">
+        <v>332</v>
       </c>
       <c r="C711">
         <v>3.5</v>
@@ -12418,7 +12429,10 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="B712" t="s">
+        <v>336</v>
       </c>
       <c r="C712">
         <v>3.5</v>
@@ -12426,10 +12440,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>333</v>
-      </c>
-      <c r="B713" t="s">
-        <v>333</v>
+        <v>1068</v>
       </c>
       <c r="C713">
         <v>3.5</v>
@@ -12437,10 +12448,10 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B714" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C714">
         <v>3.5</v>
@@ -12448,10 +12459,10 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B715" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C715">
         <v>3.5</v>
@@ -12459,7 +12470,10 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>1069</v>
+        <v>335</v>
+      </c>
+      <c r="B716" t="s">
+        <v>335</v>
       </c>
       <c r="C716">
         <v>3.5</v>
@@ -12467,7 +12481,10 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1070</v>
+        <v>1069</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1556</v>
       </c>
       <c r="C717">
         <v>3.5</v>
@@ -12475,10 +12492,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>336</v>
-      </c>
-      <c r="B718" t="s">
-        <v>336</v>
+        <v>1070</v>
       </c>
       <c r="C718">
         <v>3.5</v>
@@ -12486,10 +12500,10 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B719" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C719">
         <v>3.5</v>
@@ -12497,10 +12511,10 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B720" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C720">
         <v>3.5</v>
@@ -12508,10 +12522,10 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B721" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C721">
         <v>3.5</v>
@@ -12519,7 +12533,10 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1071</v>
+        <v>339</v>
+      </c>
+      <c r="B722" t="s">
+        <v>339</v>
       </c>
       <c r="C722">
         <v>3.5</v>
@@ -12527,10 +12544,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>340</v>
-      </c>
-      <c r="B723" t="s">
-        <v>340</v>
+        <v>1071</v>
       </c>
       <c r="C723">
         <v>3.5</v>
@@ -12538,10 +12552,10 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B724" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C724">
         <v>3.5</v>
@@ -12549,10 +12563,10 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B725" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C725">
         <v>3.5</v>
@@ -12560,7 +12574,10 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1072</v>
+        <v>342</v>
+      </c>
+      <c r="B726" t="s">
+        <v>342</v>
       </c>
       <c r="C726">
         <v>3.5</v>
@@ -12568,10 +12585,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>343</v>
-      </c>
-      <c r="B727" t="s">
-        <v>343</v>
+        <v>1072</v>
       </c>
       <c r="C727">
         <v>3.5</v>
@@ -12579,10 +12593,10 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B728" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C728">
         <v>3.5</v>
@@ -12590,7 +12604,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1073</v>
+        <v>344</v>
       </c>
       <c r="B729" t="s">
         <v>344</v>
@@ -12601,7 +12615,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B730" t="s">
         <v>344</v>
@@ -12612,7 +12626,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B731" t="s">
         <v>344</v>
@@ -12623,7 +12637,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B732" t="s">
         <v>344</v>
@@ -12634,7 +12648,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B733" t="s">
         <v>344</v>
@@ -12645,7 +12659,7 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B734" t="s">
         <v>344</v>
@@ -12656,7 +12670,7 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B735" t="s">
         <v>344</v>
@@ -12667,7 +12681,10 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1080</v>
+        <v>1079</v>
+      </c>
+      <c r="B736" t="s">
+        <v>344</v>
       </c>
       <c r="C736">
         <v>3.5</v>
@@ -12675,7 +12692,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C737">
         <v>3.5</v>
@@ -12683,10 +12700,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>746</v>
-      </c>
-      <c r="B738" t="s">
-        <v>617</v>
+        <v>1081</v>
       </c>
       <c r="C738">
         <v>3.5</v>
@@ -12694,10 +12708,10 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>345</v>
+        <v>746</v>
       </c>
       <c r="B739" t="s">
-        <v>345</v>
+        <v>617</v>
       </c>
       <c r="C739">
         <v>3.5</v>
@@ -12705,10 +12719,10 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B740" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C740">
         <v>3.5</v>
@@ -12716,10 +12730,10 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B741" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C741">
         <v>3.5</v>
@@ -12727,7 +12741,10 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1082</v>
+        <v>347</v>
+      </c>
+      <c r="B742" t="s">
+        <v>347</v>
       </c>
       <c r="C742">
         <v>3.5</v>
@@ -12735,10 +12752,7 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>736</v>
-      </c>
-      <c r="B743" t="s">
-        <v>605</v>
+        <v>1082</v>
       </c>
       <c r="C743">
         <v>3.5</v>
@@ -12746,10 +12760,10 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>478</v>
+        <v>736</v>
       </c>
       <c r="B744" t="s">
-        <v>478</v>
+        <v>605</v>
       </c>
       <c r="C744">
         <v>3.5</v>
@@ -12757,10 +12771,10 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>348</v>
+        <v>478</v>
       </c>
       <c r="B745" t="s">
-        <v>348</v>
+        <v>478</v>
       </c>
       <c r="C745">
         <v>3.5</v>
@@ -12768,10 +12782,10 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B746" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C746">
         <v>3.5</v>
@@ -12779,10 +12793,10 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1083</v>
+        <v>349</v>
       </c>
       <c r="B747" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C747">
         <v>3.5</v>
@@ -12790,7 +12804,7 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>350</v>
+        <v>1083</v>
       </c>
       <c r="B748" t="s">
         <v>350</v>
@@ -12801,10 +12815,10 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B749" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C749">
         <v>3.5</v>
@@ -12812,7 +12826,10 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1084</v>
+        <v>351</v>
+      </c>
+      <c r="B750" t="s">
+        <v>351</v>
       </c>
       <c r="C750">
         <v>3.5</v>
@@ -12820,10 +12837,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>352</v>
-      </c>
-      <c r="B751" t="s">
-        <v>352</v>
+        <v>1084</v>
       </c>
       <c r="C751">
         <v>3.5</v>
@@ -12831,10 +12845,10 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>763</v>
+        <v>352</v>
       </c>
       <c r="B752" t="s">
-        <v>633</v>
+        <v>352</v>
       </c>
       <c r="C752">
         <v>3.5</v>
@@ -12842,7 +12856,10 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>1085</v>
+        <v>763</v>
+      </c>
+      <c r="B753" t="s">
+        <v>633</v>
       </c>
       <c r="C753">
         <v>3.5</v>
@@ -12850,7 +12867,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C754">
         <v>3.5</v>
@@ -12858,7 +12875,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C755">
         <v>3.5</v>
@@ -12866,10 +12883,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B756" t="s">
-        <v>353</v>
+        <v>1087</v>
       </c>
       <c r="C756">
         <v>3.5</v>
@@ -12877,7 +12891,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B757" t="s">
         <v>353</v>
@@ -12888,7 +12902,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>353</v>
+        <v>1089</v>
       </c>
       <c r="B758" t="s">
         <v>353</v>
@@ -12899,7 +12913,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1090</v>
+        <v>353</v>
       </c>
       <c r="B759" t="s">
         <v>353</v>
@@ -12910,7 +12924,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B760" t="s">
         <v>353</v>
@@ -12921,7 +12935,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B761" t="s">
         <v>353</v>
@@ -12932,7 +12946,10 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1093</v>
+        <v>1092</v>
+      </c>
+      <c r="B762" t="s">
+        <v>353</v>
       </c>
       <c r="C762">
         <v>3.5</v>
@@ -12940,10 +12957,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B763" t="s">
-        <v>353</v>
+        <v>1093</v>
       </c>
       <c r="C763">
         <v>3.5</v>
@@ -12951,10 +12965,10 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>354</v>
+        <v>1094</v>
       </c>
       <c r="B764" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C764">
         <v>3.5</v>
@@ -12962,7 +12976,10 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>1095</v>
+        <v>354</v>
+      </c>
+      <c r="B765" t="s">
+        <v>354</v>
       </c>
       <c r="C765">
         <v>3.5</v>
@@ -12970,10 +12987,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>42</v>
-      </c>
-      <c r="B766" t="s">
-        <v>42</v>
+        <v>1095</v>
       </c>
       <c r="C766">
         <v>3.5</v>
@@ -12981,10 +12995,10 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B767" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C767">
         <v>3.5</v>
@@ -12992,10 +13006,10 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B768" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C768">
         <v>3.5</v>
@@ -13003,10 +13017,10 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="B769" t="s">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="C769">
         <v>3.5</v>
@@ -13014,10 +13028,10 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>526</v>
+        <v>355</v>
       </c>
       <c r="B770" t="s">
-        <v>526</v>
+        <v>355</v>
       </c>
       <c r="C770">
         <v>3.5</v>
@@ -13025,10 +13039,10 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>34</v>
+        <v>526</v>
       </c>
       <c r="B771" t="s">
-        <v>34</v>
+        <v>526</v>
       </c>
       <c r="C771">
         <v>3.5</v>
@@ -13036,10 +13050,10 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B772" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C772">
         <v>3.5</v>
@@ -13047,10 +13061,10 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>527</v>
+        <v>45</v>
       </c>
       <c r="B773" t="s">
-        <v>527</v>
+        <v>45</v>
       </c>
       <c r="C773">
         <v>3.5</v>
@@ -13058,10 +13072,10 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>356</v>
+        <v>527</v>
       </c>
       <c r="B774" t="s">
-        <v>356</v>
+        <v>527</v>
       </c>
       <c r="C774">
         <v>3.5</v>
@@ -13069,10 +13083,10 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>562</v>
+        <v>356</v>
       </c>
       <c r="B775" t="s">
-        <v>562</v>
+        <v>356</v>
       </c>
       <c r="C775">
         <v>3.5</v>
@@ -13080,32 +13094,35 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1096</v>
+        <v>562</v>
       </c>
       <c r="B776" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="C776">
         <v>3.5</v>
-      </c>
-      <c r="D776" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>357</v>
+        <v>1096</v>
       </c>
       <c r="B777" t="s">
-        <v>357</v>
+        <v>519</v>
       </c>
       <c r="C777">
         <v>3.5</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>1097</v>
+        <v>357</v>
+      </c>
+      <c r="B778" t="s">
+        <v>357</v>
       </c>
       <c r="C778">
         <v>3.5</v>
@@ -13113,10 +13130,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B779" t="s">
-        <v>677</v>
+        <v>1097</v>
       </c>
       <c r="C779">
         <v>3.5</v>
@@ -13124,7 +13138,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B780" t="s">
         <v>677</v>
@@ -13135,7 +13149,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B781" t="s">
         <v>677</v>
@@ -13146,7 +13160,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B782" t="s">
         <v>677</v>
@@ -13157,7 +13171,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B783" t="s">
         <v>677</v>
@@ -13168,7 +13182,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B784" t="s">
         <v>677</v>
@@ -13179,7 +13193,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B785" t="s">
         <v>677</v>
@@ -13190,7 +13204,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B786" t="s">
         <v>677</v>
@@ -13201,7 +13215,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B787" t="s">
         <v>677</v>
@@ -13212,7 +13226,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B788" t="s">
         <v>677</v>
@@ -13223,7 +13237,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B789" t="s">
         <v>677</v>
@@ -13234,7 +13248,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B790" t="s">
         <v>677</v>
@@ -13245,7 +13259,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B791" t="s">
         <v>677</v>
@@ -13256,10 +13270,10 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B792" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C792">
         <v>3.5</v>
@@ -13267,10 +13281,10 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B793" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C793">
         <v>3.5</v>
@@ -13278,10 +13292,10 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B794" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C794">
         <v>3.5</v>
@@ -13289,10 +13303,10 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B795" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C795">
         <v>3.5</v>
@@ -13300,10 +13314,10 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B796" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C796">
         <v>3.5</v>
@@ -13311,10 +13325,10 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B797" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C797">
         <v>3.5</v>
@@ -13322,7 +13336,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B798" t="s">
         <v>680</v>
@@ -13333,10 +13347,10 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B799" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C799">
         <v>3.5</v>
@@ -13344,7 +13358,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B800" t="s">
         <v>678</v>
@@ -13355,10 +13369,10 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B801" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C801">
         <v>3.5</v>
@@ -13366,10 +13380,10 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B802" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C802">
         <v>3.5</v>
@@ -13377,10 +13391,10 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B803" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C803">
         <v>3.5</v>
@@ -13388,10 +13402,10 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B804" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C804">
         <v>3.5</v>
@@ -13399,10 +13413,10 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B805" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C805">
         <v>3.5</v>
@@ -13410,7 +13424,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B806" t="s">
         <v>679</v>
@@ -13421,7 +13435,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B807" t="s">
         <v>679</v>
@@ -13432,10 +13446,10 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B808" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C808">
         <v>3.5</v>
@@ -13443,10 +13457,10 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B809" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C809">
         <v>3.5</v>
@@ -13454,10 +13468,10 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B810" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C810">
         <v>3.5</v>
@@ -13465,7 +13479,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B811" t="s">
         <v>681</v>
@@ -13476,7 +13490,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B812" t="s">
         <v>681</v>
@@ -13487,10 +13501,10 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B813" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C813">
         <v>3.5</v>
@@ -13498,7 +13512,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B814" t="s">
         <v>683</v>
@@ -13509,7 +13523,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B815" t="s">
         <v>683</v>
@@ -13520,7 +13534,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B816" t="s">
         <v>683</v>
@@ -13531,7 +13545,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B817" t="s">
         <v>683</v>
@@ -13542,7 +13556,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B818" t="s">
         <v>683</v>
@@ -13553,7 +13567,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B819" t="s">
         <v>683</v>
@@ -13564,10 +13578,10 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B820" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C820">
         <v>3.5</v>
@@ -13575,10 +13589,10 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B821" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C821">
         <v>3.5</v>
@@ -13586,10 +13600,10 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B822" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C822">
         <v>3.5</v>
@@ -13597,7 +13611,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B823" t="s">
         <v>679</v>
@@ -13608,10 +13622,10 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B824" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C824">
         <v>3.5</v>
@@ -13619,10 +13633,10 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B825" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C825">
         <v>3.5</v>
@@ -13630,10 +13644,10 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B826" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C826">
         <v>3.5</v>
@@ -13641,10 +13655,10 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B827" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C827">
         <v>3.5</v>
@@ -13652,10 +13666,10 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B828" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C828">
         <v>3.5</v>
@@ -13663,7 +13677,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B829" t="s">
         <v>679</v>
@@ -13674,7 +13688,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B830" t="s">
         <v>679</v>
@@ -13685,10 +13699,10 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B831" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C831">
         <v>3.5</v>
@@ -13696,7 +13710,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B832" t="s">
         <v>678</v>
@@ -13707,10 +13721,10 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B833" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C833">
         <v>3.5</v>
@@ -13718,7 +13732,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B834" t="s">
         <v>679</v>
@@ -13729,7 +13743,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B835" t="s">
         <v>679</v>
@@ -13740,7 +13754,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B836" t="s">
         <v>679</v>
@@ -13751,10 +13765,10 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B837" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C837">
         <v>3.5</v>
@@ -13762,7 +13776,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B838" t="s">
         <v>678</v>
@@ -13773,7 +13787,10 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>1158</v>
+        <v>1157</v>
+      </c>
+      <c r="B839" t="s">
+        <v>678</v>
       </c>
       <c r="C839">
         <v>3.5</v>
@@ -13781,10 +13798,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>358</v>
-      </c>
-      <c r="B840" t="s">
-        <v>358</v>
+        <v>1158</v>
       </c>
       <c r="C840">
         <v>3.5</v>
@@ -13792,10 +13806,10 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>1159</v>
+        <v>358</v>
       </c>
       <c r="B841" t="s">
-        <v>651</v>
+        <v>358</v>
       </c>
       <c r="C841">
         <v>3.5</v>
@@ -13803,10 +13817,10 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B842" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="C842">
         <v>3.5</v>
@@ -13814,7 +13828,10 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1161</v>
+        <v>1160</v>
+      </c>
+      <c r="B843" t="s">
+        <v>685</v>
       </c>
       <c r="C843">
         <v>3.5</v>
@@ -13822,7 +13839,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C844">
         <v>3.5</v>
@@ -13830,10 +13847,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B845" t="s">
-        <v>686</v>
+        <v>1162</v>
       </c>
       <c r="C845">
         <v>3.5</v>
@@ -13841,10 +13855,10 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>713</v>
+        <v>1163</v>
       </c>
       <c r="B846" t="s">
-        <v>583</v>
+        <v>686</v>
       </c>
       <c r="C846">
         <v>3.5</v>
@@ -13852,10 +13866,10 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>359</v>
+        <v>713</v>
       </c>
       <c r="B847" t="s">
-        <v>359</v>
+        <v>583</v>
       </c>
       <c r="C847">
         <v>3.5</v>
@@ -13863,7 +13877,10 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>1164</v>
+        <v>359</v>
+      </c>
+      <c r="B848" t="s">
+        <v>359</v>
       </c>
       <c r="C848">
         <v>3.5</v>
@@ -13871,10 +13888,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>360</v>
-      </c>
-      <c r="B849" t="s">
-        <v>360</v>
+        <v>1164</v>
       </c>
       <c r="C849">
         <v>3.5</v>
@@ -13882,10 +13896,10 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B850" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C850">
         <v>3.5</v>
@@ -13893,10 +13907,10 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B851" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C851">
         <v>3.5</v>
@@ -13904,7 +13918,10 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>1165</v>
+        <v>362</v>
+      </c>
+      <c r="B852" t="s">
+        <v>362</v>
       </c>
       <c r="C852">
         <v>3.5</v>
@@ -13912,10 +13929,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>737</v>
-      </c>
-      <c r="B853" t="s">
-        <v>606</v>
+        <v>1165</v>
       </c>
       <c r="C853">
         <v>3.5</v>
@@ -13923,10 +13937,10 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>363</v>
+        <v>737</v>
       </c>
       <c r="B854" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
       <c r="C854">
         <v>3.5</v>
@@ -13934,7 +13948,10 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>1166</v>
+        <v>363</v>
+      </c>
+      <c r="B855" t="s">
+        <v>363</v>
       </c>
       <c r="C855">
         <v>3.5</v>
@@ -13942,10 +13959,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>479</v>
-      </c>
-      <c r="B856" t="s">
-        <v>479</v>
+        <v>1166</v>
       </c>
       <c r="C856">
         <v>3.5</v>
@@ -13953,7 +13967,10 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>1167</v>
+        <v>479</v>
+      </c>
+      <c r="B857" t="s">
+        <v>479</v>
       </c>
       <c r="C857">
         <v>3.5</v>
@@ -13961,29 +13978,29 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B858" t="s">
-        <v>85</v>
+        <v>1167</v>
       </c>
       <c r="C858">
         <v>3.5</v>
-      </c>
-      <c r="D858" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1169</v>
+        <v>1168</v>
+      </c>
+      <c r="B859" t="s">
+        <v>85</v>
       </c>
       <c r="C859">
         <v>3.5</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C860">
         <v>3.5</v>
@@ -13991,7 +14008,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C861">
         <v>3.5</v>
@@ -13999,7 +14016,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C862">
         <v>3.5</v>
@@ -14007,10 +14024,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>365</v>
-      </c>
-      <c r="B863" t="s">
-        <v>365</v>
+        <v>1172</v>
       </c>
       <c r="C863">
         <v>3.5</v>
@@ -14018,10 +14032,10 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B864" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C864">
         <v>3.5</v>
@@ -14029,10 +14043,10 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>548</v>
+        <v>366</v>
       </c>
       <c r="B865" t="s">
-        <v>548</v>
+        <v>366</v>
       </c>
       <c r="C865">
         <v>3.5</v>
@@ -14040,10 +14054,10 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B866" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C866">
         <v>3.5</v>
@@ -14051,10 +14065,10 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B867" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C867">
         <v>3.5</v>
@@ -14062,7 +14076,10 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>1173</v>
+        <v>550</v>
+      </c>
+      <c r="B868" t="s">
+        <v>550</v>
       </c>
       <c r="C868">
         <v>3.5</v>
@@ -14070,7 +14087,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C869">
         <v>3.5</v>
@@ -14078,10 +14095,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B870" t="s">
-        <v>687</v>
+        <v>1174</v>
       </c>
       <c r="C870">
         <v>3.5</v>
@@ -14089,10 +14103,10 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>367</v>
+        <v>1175</v>
       </c>
       <c r="B871" t="s">
-        <v>367</v>
+        <v>687</v>
       </c>
       <c r="C871">
         <v>3.5</v>
@@ -14100,10 +14114,10 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B872" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C872">
         <v>3.5</v>
@@ -14111,10 +14125,10 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B873" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C873">
         <v>3.5</v>
@@ -14122,10 +14136,10 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B874" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C874">
         <v>3.5</v>
@@ -14133,7 +14147,10 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>1176</v>
+        <v>370</v>
+      </c>
+      <c r="B875" t="s">
+        <v>370</v>
       </c>
       <c r="C875">
         <v>3.5</v>
@@ -14141,7 +14158,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C876">
         <v>3.5</v>
@@ -14149,10 +14166,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B877" t="s">
-        <v>688</v>
+        <v>1177</v>
       </c>
       <c r="C877">
         <v>3.5</v>
@@ -14160,10 +14174,10 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>371</v>
+        <v>1178</v>
       </c>
       <c r="B878" t="s">
-        <v>371</v>
+        <v>688</v>
       </c>
       <c r="C878">
         <v>3.5</v>
@@ -14171,7 +14185,10 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1179</v>
+        <v>371</v>
+      </c>
+      <c r="B879" t="s">
+        <v>371</v>
       </c>
       <c r="C879">
         <v>3.5</v>
@@ -14179,7 +14196,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C880">
         <v>3.5</v>
@@ -14187,10 +14204,7 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>372</v>
-      </c>
-      <c r="B881" t="s">
-        <v>372</v>
+        <v>1180</v>
       </c>
       <c r="C881">
         <v>3.5</v>
@@ -14198,10 +14212,10 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B882" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C882">
         <v>3.5</v>
@@ -14209,10 +14223,10 @@
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B883" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C883">
         <v>3.5</v>
@@ -14220,10 +14234,10 @@
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>738</v>
+        <v>374</v>
       </c>
       <c r="B884" t="s">
-        <v>607</v>
+        <v>374</v>
       </c>
       <c r="C884">
         <v>3.5</v>
@@ -14231,10 +14245,10 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>375</v>
+        <v>738</v>
       </c>
       <c r="B885" t="s">
-        <v>375</v>
+        <v>607</v>
       </c>
       <c r="C885">
         <v>3.5</v>
@@ -14242,10 +14256,10 @@
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B886" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C886">
         <v>3.5</v>
@@ -14253,10 +14267,10 @@
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C887">
         <v>3.5</v>
@@ -14264,7 +14278,10 @@
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>1181</v>
+        <v>377</v>
+      </c>
+      <c r="B888" t="s">
+        <v>377</v>
       </c>
       <c r="C888">
         <v>3.5</v>
@@ -14272,10 +14289,7 @@
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>378</v>
-      </c>
-      <c r="B889" t="s">
-        <v>378</v>
+        <v>1181</v>
       </c>
       <c r="C889">
         <v>3.5</v>
@@ -14283,10 +14297,10 @@
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>484</v>
+        <v>378</v>
       </c>
       <c r="B890" t="s">
-        <v>484</v>
+        <v>378</v>
       </c>
       <c r="C890">
         <v>3.5</v>
@@ -14294,7 +14308,10 @@
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>1182</v>
+        <v>484</v>
+      </c>
+      <c r="B891" t="s">
+        <v>484</v>
       </c>
       <c r="C891">
         <v>3.5</v>
@@ -14302,10 +14319,7 @@
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>485</v>
-      </c>
-      <c r="B892" t="s">
-        <v>485</v>
+        <v>1182</v>
       </c>
       <c r="C892">
         <v>3.5</v>
@@ -14313,10 +14327,10 @@
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B893" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C893">
         <v>3.5</v>
@@ -14324,7 +14338,10 @@
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>1183</v>
+        <v>486</v>
+      </c>
+      <c r="B894" t="s">
+        <v>486</v>
       </c>
       <c r="C894">
         <v>3.5</v>
@@ -14332,7 +14349,7 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C895">
         <v>3.5</v>
@@ -14340,7 +14357,7 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C896">
         <v>3.5</v>
@@ -14348,10 +14365,7 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B897" t="s">
-        <v>486</v>
+        <v>1185</v>
       </c>
       <c r="C897">
         <v>3.5</v>
@@ -14359,7 +14373,7 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B898" t="s">
         <v>486</v>
@@ -14370,10 +14384,10 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>379</v>
+        <v>1187</v>
       </c>
       <c r="B899" t="s">
-        <v>379</v>
+        <v>486</v>
       </c>
       <c r="C899">
         <v>3.5</v>
@@ -14381,10 +14395,10 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B900" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C900">
         <v>3.5</v>
@@ -14392,10 +14406,10 @@
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B901" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C901">
         <v>3.5</v>
@@ -14403,10 +14417,10 @@
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B902" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C902">
         <v>3.5</v>
@@ -14414,10 +14428,10 @@
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B903" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C903">
         <v>3.5</v>
@@ -14425,7 +14439,10 @@
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>1188</v>
+        <v>383</v>
+      </c>
+      <c r="B904" t="s">
+        <v>383</v>
       </c>
       <c r="C904">
         <v>3.5</v>
@@ -14433,7 +14450,7 @@
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C905">
         <v>3.5</v>
@@ -14441,10 +14458,7 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>384</v>
-      </c>
-      <c r="B906" t="s">
-        <v>384</v>
+        <v>1189</v>
       </c>
       <c r="C906">
         <v>3.5</v>
@@ -14452,10 +14466,10 @@
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B907" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C907">
         <v>3.5</v>
@@ -14463,10 +14477,10 @@
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B908" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C908">
         <v>3.5</v>
@@ -14474,10 +14488,10 @@
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="B909" t="s">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="C909">
         <v>3.5</v>
@@ -14485,7 +14499,7 @@
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>1190</v>
+        <v>537</v>
       </c>
       <c r="B910" t="s">
         <v>537</v>
@@ -14496,7 +14510,7 @@
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B911" t="s">
         <v>537</v>
@@ -14507,10 +14521,10 @@
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>515</v>
+        <v>1191</v>
       </c>
       <c r="B912" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C912">
         <v>3.5</v>
@@ -14518,7 +14532,10 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>1192</v>
+        <v>515</v>
+      </c>
+      <c r="B913" t="s">
+        <v>515</v>
       </c>
       <c r="C913">
         <v>3.5</v>
@@ -14526,10 +14543,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>516</v>
-      </c>
-      <c r="B914" t="s">
-        <v>516</v>
+        <v>1192</v>
       </c>
       <c r="C914">
         <v>3.5</v>
@@ -14537,10 +14551,10 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B915" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C915">
         <v>3.5</v>
@@ -14548,10 +14562,10 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>387</v>
+        <v>517</v>
       </c>
       <c r="B916" t="s">
-        <v>387</v>
+        <v>517</v>
       </c>
       <c r="C916">
         <v>3.5</v>
@@ -14559,10 +14573,10 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>538</v>
+        <v>387</v>
       </c>
       <c r="B917" t="s">
-        <v>538</v>
+        <v>387</v>
       </c>
       <c r="C917">
         <v>3.5</v>
@@ -14570,10 +14584,10 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B918" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C918">
         <v>3.5</v>
@@ -14581,7 +14595,10 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>1193</v>
+        <v>539</v>
+      </c>
+      <c r="B919" t="s">
+        <v>539</v>
       </c>
       <c r="C919">
         <v>3.5</v>
@@ -14589,29 +14606,29 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B920" t="s">
-        <v>689</v>
+        <v>1193</v>
       </c>
       <c r="C920">
         <v>3.5</v>
-      </c>
-      <c r="D920" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>1195</v>
+        <v>1194</v>
+      </c>
+      <c r="B921" t="s">
+        <v>689</v>
       </c>
       <c r="C921">
         <v>3.5</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C922">
         <v>3.5</v>
@@ -14619,10 +14636,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>764</v>
-      </c>
-      <c r="B923" t="s">
-        <v>634</v>
+        <v>1196</v>
       </c>
       <c r="C923">
         <v>3.5</v>
@@ -14630,7 +14644,10 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>1197</v>
+        <v>764</v>
+      </c>
+      <c r="B924" t="s">
+        <v>634</v>
       </c>
       <c r="C924">
         <v>3.5</v>
@@ -14638,10 +14655,7 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>388</v>
-      </c>
-      <c r="B925" t="s">
-        <v>388</v>
+        <v>1197</v>
       </c>
       <c r="C925">
         <v>3.5</v>
@@ -14649,10 +14663,10 @@
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B926" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C926">
         <v>3.5</v>
@@ -14660,10 +14674,10 @@
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B927" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C927">
         <v>3.5</v>
@@ -14671,7 +14685,10 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>1198</v>
+        <v>390</v>
+      </c>
+      <c r="B928" t="s">
+        <v>390</v>
       </c>
       <c r="C928">
         <v>3.5</v>
@@ -14679,7 +14696,7 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C929">
         <v>3.5</v>
@@ -14687,10 +14704,7 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>391</v>
-      </c>
-      <c r="B930" t="s">
-        <v>391</v>
+        <v>1199</v>
       </c>
       <c r="C930">
         <v>3.5</v>
@@ -14698,10 +14712,10 @@
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B931" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C931">
         <v>3.5</v>
@@ -14709,10 +14723,10 @@
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B932" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C932">
         <v>3.5</v>
@@ -14720,10 +14734,10 @@
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B933" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C933">
         <v>3.5</v>
@@ -14731,10 +14745,10 @@
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B934" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C934">
         <v>3.5</v>
@@ -14745,7 +14759,7 @@
         <v>395</v>
       </c>
       <c r="B935" t="s">
-        <v>608</v>
+        <v>395</v>
       </c>
       <c r="C935">
         <v>3.5</v>
@@ -14753,10 +14767,10 @@
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B936" t="s">
-        <v>396</v>
+        <v>608</v>
       </c>
       <c r="C936">
         <v>3.5</v>
@@ -14764,10 +14778,10 @@
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>563</v>
+        <v>396</v>
       </c>
       <c r="B937" t="s">
-        <v>563</v>
+        <v>396</v>
       </c>
       <c r="C937">
         <v>3.5</v>
@@ -14775,10 +14789,10 @@
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>397</v>
+        <v>563</v>
       </c>
       <c r="B938" t="s">
-        <v>397</v>
+        <v>563</v>
       </c>
       <c r="C938">
         <v>3.5</v>
@@ -14786,10 +14800,10 @@
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>707</v>
+        <v>397</v>
       </c>
       <c r="B939" t="s">
-        <v>576</v>
+        <v>397</v>
       </c>
       <c r="C939">
         <v>3.5</v>
@@ -14797,10 +14811,10 @@
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>398</v>
+        <v>707</v>
       </c>
       <c r="B940" t="s">
-        <v>398</v>
+        <v>576</v>
       </c>
       <c r="C940">
         <v>3.5</v>
@@ -14808,10 +14822,10 @@
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B941" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C941">
         <v>3.5</v>
@@ -14819,10 +14833,10 @@
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="B942" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="C942">
         <v>3.5</v>
@@ -14830,10 +14844,10 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="B943" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="C943">
         <v>3.5</v>
@@ -14841,10 +14855,10 @@
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B944" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C944">
         <v>3.5</v>
@@ -14852,10 +14866,10 @@
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B945" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C945">
         <v>3.5</v>
@@ -14863,10 +14877,10 @@
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B946" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C946">
         <v>3.5</v>
@@ -14874,7 +14888,10 @@
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>1200</v>
+        <v>403</v>
+      </c>
+      <c r="B947" t="s">
+        <v>403</v>
       </c>
       <c r="C947">
         <v>3.5</v>
@@ -14882,10 +14899,7 @@
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>404</v>
-      </c>
-      <c r="B948" t="s">
-        <v>404</v>
+        <v>1200</v>
       </c>
       <c r="C948">
         <v>3.5</v>
@@ -14893,10 +14907,10 @@
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B949" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C949">
         <v>3.5</v>
@@ -14904,7 +14918,10 @@
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>1201</v>
+        <v>405</v>
+      </c>
+      <c r="B950" t="s">
+        <v>405</v>
       </c>
       <c r="C950">
         <v>3.5</v>
@@ -14912,10 +14929,7 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>406</v>
-      </c>
-      <c r="B951" t="s">
-        <v>406</v>
+        <v>1201</v>
       </c>
       <c r="C951">
         <v>3.5</v>
@@ -14923,10 +14937,10 @@
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B952" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C952">
         <v>3.5</v>
@@ -14934,7 +14948,10 @@
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>1202</v>
+        <v>407</v>
+      </c>
+      <c r="B953" t="s">
+        <v>407</v>
       </c>
       <c r="C953">
         <v>3.5</v>
@@ -14942,7 +14959,7 @@
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C954">
         <v>3.5</v>
@@ -14950,10 +14967,7 @@
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B955" t="s">
-        <v>537</v>
+        <v>1203</v>
       </c>
       <c r="C955">
         <v>3.5</v>
@@ -14961,7 +14975,7 @@
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B956" t="s">
         <v>537</v>
@@ -14972,10 +14986,10 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>364</v>
+        <v>1205</v>
       </c>
       <c r="B957" t="s">
-        <v>364</v>
+        <v>537</v>
       </c>
       <c r="C957">
         <v>3.5</v>
@@ -14983,10 +14997,10 @@
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>1206</v>
+        <v>364</v>
       </c>
       <c r="B958" t="s">
-        <v>690</v>
+        <v>364</v>
       </c>
       <c r="C958">
         <v>3.5</v>
@@ -14994,10 +15008,10 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>408</v>
+        <v>1206</v>
       </c>
       <c r="B959" t="s">
-        <v>408</v>
+        <v>690</v>
       </c>
       <c r="C959">
         <v>3.5</v>
@@ -15005,7 +15019,10 @@
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>1207</v>
+        <v>408</v>
+      </c>
+      <c r="B960" t="s">
+        <v>408</v>
       </c>
       <c r="C960">
         <v>3.5</v>
@@ -15013,7 +15030,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C961">
         <v>3.5</v>
@@ -15021,7 +15038,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C962">
         <v>3.5</v>
@@ -15029,10 +15046,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>409</v>
-      </c>
-      <c r="B963" t="s">
-        <v>409</v>
+        <v>1209</v>
       </c>
       <c r="C963">
         <v>3.5</v>
@@ -15040,10 +15054,10 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B964" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C964">
         <v>3.5</v>
@@ -15051,10 +15065,10 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B965" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C965">
         <v>3.5</v>
@@ -15062,10 +15076,10 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>1210</v>
+        <v>411</v>
       </c>
       <c r="B966" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C966">
         <v>3.5</v>
@@ -15073,7 +15087,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>412</v>
+        <v>1210</v>
       </c>
       <c r="B967" t="s">
         <v>412</v>
@@ -15084,10 +15098,10 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B968" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C968">
         <v>3.5</v>
@@ -15095,10 +15109,10 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B969" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C969">
         <v>3.5</v>
@@ -15106,10 +15120,10 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B970" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C970">
         <v>3.5</v>
@@ -15117,10 +15131,10 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B971" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C971">
         <v>3.5</v>
@@ -15128,10 +15142,10 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>765</v>
+        <v>416</v>
       </c>
       <c r="B972" t="s">
-        <v>635</v>
+        <v>416</v>
       </c>
       <c r="C972">
         <v>3.5</v>
@@ -15139,10 +15153,10 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>417</v>
+        <v>765</v>
       </c>
       <c r="B973" t="s">
-        <v>417</v>
+        <v>635</v>
       </c>
       <c r="C973">
         <v>3.5</v>
@@ -15150,10 +15164,10 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>766</v>
+        <v>417</v>
       </c>
       <c r="B974" t="s">
-        <v>636</v>
+        <v>417</v>
       </c>
       <c r="C974">
         <v>3.5</v>
@@ -15161,10 +15175,10 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>418</v>
+        <v>766</v>
       </c>
       <c r="B975" t="s">
-        <v>418</v>
+        <v>636</v>
       </c>
       <c r="C975">
         <v>3.5</v>
@@ -15172,10 +15186,10 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B976" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C976">
         <v>3.5</v>
@@ -15183,7 +15197,10 @@
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>1211</v>
+        <v>419</v>
+      </c>
+      <c r="B977" t="s">
+        <v>419</v>
       </c>
       <c r="C977">
         <v>3.5</v>
@@ -15191,10 +15208,7 @@
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>714</v>
-      </c>
-      <c r="B978" t="s">
-        <v>584</v>
+        <v>1211</v>
       </c>
       <c r="C978">
         <v>3.5</v>
@@ -15202,10 +15216,10 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>420</v>
+        <v>714</v>
       </c>
       <c r="B979" t="s">
-        <v>420</v>
+        <v>584</v>
       </c>
       <c r="C979">
         <v>3.5</v>
@@ -15213,7 +15227,10 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>1212</v>
+        <v>420</v>
+      </c>
+      <c r="B980" t="s">
+        <v>420</v>
       </c>
       <c r="C980">
         <v>3.5</v>
@@ -15221,34 +15238,52 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>1213</v>
+        <v>1212</v>
+      </c>
+      <c r="B981" t="s">
+        <v>420</v>
       </c>
       <c r="C981">
         <v>3.5</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>1214</v>
+        <v>1213</v>
+      </c>
+      <c r="B982" t="s">
+        <v>420</v>
       </c>
       <c r="C982">
         <v>3.5</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>740</v>
+        <v>1214</v>
       </c>
       <c r="B983" t="s">
-        <v>611</v>
+        <v>420</v>
       </c>
       <c r="C983">
         <v>3.5</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>1215</v>
+        <v>740</v>
+      </c>
+      <c r="B984" t="s">
+        <v>611</v>
       </c>
       <c r="C984">
         <v>3.5</v>
@@ -15256,24 +15291,18 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B985" t="s">
-        <v>523</v>
+        <v>1215</v>
       </c>
       <c r="C985">
         <v>3.5</v>
-      </c>
-      <c r="D985" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B986" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="C986">
         <v>3.5</v>
@@ -15284,10 +15313,10 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B987" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C987">
         <v>3.5</v>
@@ -15298,15 +15327,21 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>1219</v>
+        <v>1218</v>
+      </c>
+      <c r="B988" t="s">
+        <v>523</v>
       </c>
       <c r="C988">
         <v>3.5</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C989">
         <v>3.5</v>
@@ -15314,10 +15349,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>518</v>
-      </c>
-      <c r="B990" t="s">
-        <v>518</v>
+        <v>1220</v>
       </c>
       <c r="C990">
         <v>3.5</v>
@@ -15325,7 +15357,10 @@
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>1221</v>
+        <v>518</v>
+      </c>
+      <c r="B991" t="s">
+        <v>518</v>
       </c>
       <c r="C991">
         <v>3.5</v>
@@ -15333,7 +15368,7 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C992">
         <v>3.5</v>
@@ -15341,10 +15376,7 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>519</v>
-      </c>
-      <c r="B993" t="s">
-        <v>519</v>
+        <v>1222</v>
       </c>
       <c r="C993">
         <v>3.5</v>
@@ -15352,7 +15384,10 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>1223</v>
+        <v>519</v>
+      </c>
+      <c r="B994" t="s">
+        <v>519</v>
       </c>
       <c r="C994">
         <v>3.5</v>
@@ -15360,7 +15395,7 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C995">
         <v>3.5</v>
@@ -15368,7 +15403,7 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C996">
         <v>3.5</v>
@@ -15376,7 +15411,7 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C997">
         <v>3.5</v>
@@ -15384,10 +15419,7 @@
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>767</v>
-      </c>
-      <c r="B998" t="s">
-        <v>637</v>
+        <v>1226</v>
       </c>
       <c r="C998">
         <v>3.5</v>
@@ -15395,7 +15427,10 @@
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>1227</v>
+        <v>767</v>
+      </c>
+      <c r="B999" t="s">
+        <v>637</v>
       </c>
       <c r="C999">
         <v>3.5</v>
@@ -15403,7 +15438,7 @@
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C1000">
         <v>3.5</v>
@@ -15411,7 +15446,7 @@
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C1001">
         <v>3.5</v>
@@ -15419,10 +15454,7 @@
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>421</v>
+        <v>1229</v>
       </c>
       <c r="C1002">
         <v>3.5</v>
@@ -15430,10 +15462,10 @@
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1003" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C1003">
         <v>3.5</v>
@@ -15441,7 +15473,10 @@
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>1230</v>
+        <v>422</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>422</v>
       </c>
       <c r="C1004">
         <v>3.5</v>
@@ -15449,7 +15484,7 @@
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C1005">
         <v>3.5</v>
@@ -15457,7 +15492,7 @@
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C1006">
         <v>3.5</v>
@@ -15465,7 +15500,7 @@
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C1007">
         <v>3.5</v>
@@ -15473,10 +15508,7 @@
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>769</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>640</v>
+        <v>1233</v>
       </c>
       <c r="C1008">
         <v>3.5</v>
@@ -15484,10 +15516,10 @@
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>1234</v>
+        <v>769</v>
       </c>
       <c r="B1009" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="C1009">
         <v>3.5</v>
@@ -15495,10 +15527,10 @@
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>540</v>
+        <v>1234</v>
       </c>
       <c r="B1010" t="s">
-        <v>540</v>
+        <v>691</v>
       </c>
       <c r="C1010">
         <v>3.5</v>
@@ -15506,10 +15538,10 @@
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="B1011" t="s">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="C1011">
         <v>3.5</v>
@@ -15517,10 +15549,10 @@
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B1012" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1012">
         <v>3.5</v>
@@ -15528,10 +15560,10 @@
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>1235</v>
+        <v>424</v>
       </c>
       <c r="B1013" t="s">
-        <v>692</v>
+        <v>424</v>
       </c>
       <c r="C1013">
         <v>3.5</v>
@@ -15539,10 +15571,10 @@
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>425</v>
+        <v>1235</v>
       </c>
       <c r="B1014" t="s">
-        <v>425</v>
+        <v>692</v>
       </c>
       <c r="C1014">
         <v>3.5</v>
@@ -15550,10 +15582,10 @@
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>541</v>
+        <v>425</v>
       </c>
       <c r="B1015" t="s">
-        <v>541</v>
+        <v>425</v>
       </c>
       <c r="C1015">
         <v>3.5</v>
@@ -15561,7 +15593,10 @@
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>1236</v>
+        <v>541</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>541</v>
       </c>
       <c r="C1016">
         <v>3.5</v>
@@ -15569,7 +15604,7 @@
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C1017">
         <v>3.5</v>
@@ -15577,7 +15612,7 @@
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C1018">
         <v>3.5</v>
@@ -15585,7 +15620,7 @@
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C1019">
         <v>3.5</v>
@@ -15593,10 +15628,7 @@
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>426</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>426</v>
+        <v>1239</v>
       </c>
       <c r="C1020">
         <v>3.5</v>
@@ -15604,7 +15636,7 @@
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>1240</v>
+        <v>426</v>
       </c>
       <c r="B1021" t="s">
         <v>426</v>
@@ -15615,7 +15647,7 @@
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1022" t="s">
         <v>426</v>
@@ -15626,7 +15658,7 @@
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1023" t="s">
         <v>426</v>
@@ -15637,7 +15669,7 @@
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1024" t="s">
         <v>426</v>
@@ -15648,7 +15680,7 @@
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1025" t="s">
         <v>426</v>
@@ -15659,7 +15691,7 @@
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1026" t="s">
         <v>426</v>
@@ -15670,7 +15702,7 @@
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1027" t="s">
         <v>426</v>
@@ -15681,7 +15713,7 @@
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1028" t="s">
         <v>426</v>
@@ -15692,7 +15724,7 @@
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1029" t="s">
         <v>426</v>
@@ -15703,7 +15735,7 @@
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B1030" t="s">
         <v>426</v>
@@ -15714,7 +15746,7 @@
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1031" t="s">
         <v>426</v>
@@ -15725,7 +15757,7 @@
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1032" t="s">
         <v>426</v>
@@ -15736,7 +15768,7 @@
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1033" t="s">
         <v>426</v>
@@ -15747,7 +15779,10 @@
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
-        <v>1253</v>
+        <v>1252</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>426</v>
       </c>
       <c r="C1034">
         <v>3.5</v>
@@ -15755,10 +15790,7 @@
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>509</v>
+        <v>1253</v>
       </c>
       <c r="C1035">
         <v>3.5</v>
@@ -15766,10 +15798,10 @@
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="B1036" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="C1036">
         <v>3.5</v>
@@ -15777,10 +15809,10 @@
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>735</v>
+        <v>427</v>
       </c>
       <c r="B1037" t="s">
-        <v>604</v>
+        <v>427</v>
       </c>
       <c r="C1037">
         <v>3.5</v>
@@ -15788,7 +15820,10 @@
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>1254</v>
+        <v>735</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>604</v>
       </c>
       <c r="C1038">
         <v>3.5</v>
@@ -15796,7 +15831,7 @@
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C1039">
         <v>3.5</v>
@@ -15804,10 +15839,7 @@
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>768</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>638</v>
+        <v>1255</v>
       </c>
       <c r="C1040">
         <v>3.5</v>
@@ -15818,7 +15850,7 @@
         <v>768</v>
       </c>
       <c r="B1041" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C1041">
         <v>3.5</v>
@@ -15826,7 +15858,10 @@
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>1256</v>
+        <v>768</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>639</v>
       </c>
       <c r="C1042">
         <v>3.5</v>
@@ -15834,7 +15869,7 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1043">
         <v>3.5</v>
@@ -15842,10 +15877,7 @@
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>428</v>
+        <v>1257</v>
       </c>
       <c r="C1044">
         <v>3.5</v>
@@ -15853,7 +15885,10 @@
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>1258</v>
+        <v>428</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>428</v>
       </c>
       <c r="C1045">
         <v>3.5</v>
@@ -15861,7 +15896,7 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1046">
         <v>3.5</v>
@@ -15869,10 +15904,7 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>770</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>641</v>
+        <v>1259</v>
       </c>
       <c r="C1047">
         <v>3.5</v>
@@ -15880,7 +15912,10 @@
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>1260</v>
+        <v>770</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>641</v>
       </c>
       <c r="C1048">
         <v>3.5</v>
@@ -15888,10 +15923,7 @@
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>693</v>
+        <v>1260</v>
       </c>
       <c r="C1049">
         <v>3.5</v>
@@ -15899,7 +15931,10 @@
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>1262</v>
+        <v>1261</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>693</v>
       </c>
       <c r="C1050">
         <v>3.5</v>
@@ -15907,7 +15942,7 @@
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1051">
         <v>3.5</v>
@@ -15915,7 +15950,7 @@
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1052">
         <v>3.5</v>
@@ -15923,7 +15958,7 @@
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C1053">
         <v>3.5</v>
@@ -15931,7 +15966,7 @@
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C1054">
         <v>3.5</v>
@@ -15939,7 +15974,7 @@
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C1055">
         <v>3.5</v>
@@ -15947,7 +15982,7 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C1056">
         <v>3.5</v>
@@ -15955,10 +15990,7 @@
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>694</v>
+        <v>1268</v>
       </c>
       <c r="C1057">
         <v>3.5</v>
@@ -15966,10 +15998,10 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>429</v>
+        <v>1269</v>
       </c>
       <c r="B1058" t="s">
-        <v>429</v>
+        <v>694</v>
       </c>
       <c r="C1058">
         <v>3.5</v>
@@ -15977,7 +16009,10 @@
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>1270</v>
+        <v>429</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>429</v>
       </c>
       <c r="C1059">
         <v>3.5</v>
@@ -15985,10 +16020,7 @@
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>695</v>
+        <v>1270</v>
       </c>
       <c r="C1060">
         <v>3.5</v>
@@ -15996,10 +16028,10 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>430</v>
+        <v>1271</v>
       </c>
       <c r="B1061" t="s">
-        <v>430</v>
+        <v>695</v>
       </c>
       <c r="C1061">
         <v>3.5</v>
@@ -16007,7 +16039,7 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>1272</v>
+        <v>430</v>
       </c>
       <c r="B1062" t="s">
         <v>430</v>
@@ -16018,7 +16050,10 @@
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>1273</v>
+        <v>1272</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>430</v>
       </c>
       <c r="C1063">
         <v>3.5</v>
@@ -16026,7 +16061,7 @@
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C1064">
         <v>3.5</v>
@@ -16034,10 +16069,7 @@
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>431</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>431</v>
+        <v>1274</v>
       </c>
       <c r="C1065">
         <v>3.5</v>
@@ -16045,7 +16077,10 @@
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>1275</v>
+        <v>431</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>431</v>
       </c>
       <c r="C1066">
         <v>3.5</v>
@@ -16053,10 +16088,7 @@
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>46</v>
+        <v>1275</v>
       </c>
       <c r="C1067">
         <v>3.5</v>
@@ -16064,7 +16096,10 @@
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>1276</v>
+        <v>46</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>46</v>
       </c>
       <c r="C1068">
         <v>3.5</v>
@@ -16072,10 +16107,7 @@
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>432</v>
+        <v>1276</v>
       </c>
       <c r="C1069">
         <v>3.5</v>
@@ -16083,7 +16115,10 @@
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
-        <v>1277</v>
+        <v>432</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>432</v>
       </c>
       <c r="C1070">
         <v>3.5</v>
@@ -16091,7 +16126,7 @@
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C1071">
         <v>3.5</v>
@@ -16099,7 +16134,7 @@
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C1072">
         <v>3.5</v>
@@ -16107,10 +16142,7 @@
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>433</v>
+        <v>1279</v>
       </c>
       <c r="C1073">
         <v>3.5</v>
@@ -16118,10 +16150,10 @@
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B1074" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1074">
         <v>3.5</v>
@@ -16129,10 +16161,10 @@
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>542</v>
+        <v>434</v>
       </c>
       <c r="B1075" t="s">
-        <v>542</v>
+        <v>434</v>
       </c>
       <c r="C1075">
         <v>3.5</v>
@@ -16140,10 +16172,10 @@
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="B1076" t="s">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="C1076">
         <v>3.5</v>
@@ -16154,7 +16186,7 @@
         <v>47</v>
       </c>
       <c r="B1077" t="s">
-        <v>573</v>
+        <v>47</v>
       </c>
       <c r="C1077">
         <v>3.5</v>
@@ -16162,10 +16194,10 @@
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B1078" t="s">
-        <v>35</v>
+        <v>573</v>
       </c>
       <c r="C1078">
         <v>3.5</v>
@@ -16173,10 +16205,10 @@
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>564</v>
+        <v>35</v>
       </c>
       <c r="B1079" t="s">
-        <v>564</v>
+        <v>35</v>
       </c>
       <c r="C1079">
         <v>3.5</v>
@@ -16184,10 +16216,10 @@
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>48</v>
+        <v>564</v>
       </c>
       <c r="B1080" t="s">
-        <v>48</v>
+        <v>564</v>
       </c>
       <c r="C1080">
         <v>3.5</v>
@@ -16195,10 +16227,10 @@
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>1280</v>
+        <v>48</v>
       </c>
       <c r="B1081" t="s">
-        <v>542</v>
+        <v>48</v>
       </c>
       <c r="C1081">
         <v>3.5</v>
@@ -16206,10 +16238,10 @@
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>49</v>
+        <v>1280</v>
       </c>
       <c r="B1082" t="s">
-        <v>49</v>
+        <v>542</v>
       </c>
       <c r="C1082">
         <v>3.5</v>
@@ -16217,7 +16249,10 @@
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>1281</v>
+        <v>49</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>49</v>
       </c>
       <c r="C1083">
         <v>3.5</v>
@@ -16225,7 +16260,7 @@
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C1084">
         <v>3.5</v>
@@ -16233,10 +16268,7 @@
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>771</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>642</v>
+        <v>1282</v>
       </c>
       <c r="C1085">
         <v>3.5</v>
@@ -16244,10 +16276,10 @@
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B1086" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C1086">
         <v>3.5</v>
@@ -16255,10 +16287,10 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="B1087" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="C1087">
         <v>3.5</v>
@@ -16266,10 +16298,10 @@
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>480</v>
+        <v>739</v>
       </c>
       <c r="B1088" t="s">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="C1088">
         <v>3.5</v>
@@ -16277,10 +16309,10 @@
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B1089" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1089">
         <v>3.5</v>
@@ -16291,7 +16323,7 @@
         <v>481</v>
       </c>
       <c r="B1090" t="s">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="C1090">
         <v>3.5</v>
@@ -16299,10 +16331,10 @@
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>741</v>
+        <v>481</v>
       </c>
       <c r="B1091" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C1091">
         <v>3.5</v>
@@ -16310,10 +16342,10 @@
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>435</v>
+        <v>741</v>
       </c>
       <c r="B1092" t="s">
-        <v>435</v>
+        <v>612</v>
       </c>
       <c r="C1092">
         <v>3.5</v>
@@ -16321,10 +16353,10 @@
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1093" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1093">
         <v>3.5</v>
@@ -16332,7 +16364,10 @@
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>1283</v>
+        <v>436</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>436</v>
       </c>
       <c r="C1094">
         <v>3.5</v>
@@ -16340,10 +16375,7 @@
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>437</v>
+        <v>1283</v>
       </c>
       <c r="C1095">
         <v>3.5</v>
@@ -16351,7 +16383,10 @@
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>1284</v>
+        <v>437</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>437</v>
       </c>
       <c r="C1096">
         <v>3.5</v>
@@ -16359,7 +16394,7 @@
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C1097">
         <v>3.5</v>
@@ -16367,7 +16402,7 @@
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C1098">
         <v>3.5</v>
@@ -16375,10 +16410,7 @@
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>438</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>438</v>
+        <v>1286</v>
       </c>
       <c r="C1099">
         <v>3.5</v>
@@ -16386,10 +16418,10 @@
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1100">
         <v>3.5</v>
@@ -16397,10 +16429,10 @@
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>543</v>
+        <v>439</v>
       </c>
       <c r="B1101" t="s">
-        <v>543</v>
+        <v>439</v>
       </c>
       <c r="C1101">
         <v>3.5</v>
@@ -16408,7 +16440,7 @@
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>1287</v>
+        <v>543</v>
       </c>
       <c r="B1102" t="s">
         <v>543</v>
@@ -16419,7 +16451,10 @@
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>1288</v>
+        <v>1287</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>543</v>
       </c>
       <c r="C1103">
         <v>3.5</v>
@@ -16427,7 +16462,7 @@
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1104">
         <v>3.5</v>
@@ -16435,10 +16470,7 @@
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>440</v>
+        <v>1289</v>
       </c>
       <c r="C1105">
         <v>3.5</v>
@@ -16446,10 +16478,10 @@
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1106">
         <v>3.5</v>
@@ -16457,10 +16489,10 @@
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B1107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C1107">
         <v>3.5</v>
@@ -16468,10 +16500,10 @@
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B1108" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1108">
         <v>3.5</v>
@@ -16479,10 +16511,10 @@
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1109" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1109">
         <v>3.5</v>
@@ -16490,32 +16522,32 @@
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>1290</v>
+        <v>444</v>
       </c>
       <c r="B1110" t="s">
-        <v>696</v>
+        <v>444</v>
       </c>
       <c r="C1110">
         <v>3.5</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1291</v>
+        <v>1290</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>696</v>
       </c>
       <c r="C1111">
         <v>3.5</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>445</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>445</v>
+        <v>1291</v>
       </c>
       <c r="C1112">
         <v>3.5</v>
@@ -16523,10 +16555,10 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B1113" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1113">
         <v>3.5</v>
@@ -16534,7 +16566,10 @@
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>1292</v>
+        <v>446</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>446</v>
       </c>
       <c r="C1114">
         <v>3.5</v>
@@ -16542,7 +16577,7 @@
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C1115">
         <v>3.5</v>
@@ -16550,10 +16585,7 @@
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>447</v>
+        <v>1293</v>
       </c>
       <c r="C1116">
         <v>3.5</v>
@@ -16561,21 +16593,18 @@
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>1294</v>
+        <v>447</v>
       </c>
       <c r="B1117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1117">
         <v>3.5</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>448</v>
+        <v>1294</v>
       </c>
       <c r="B1118" t="s">
         <v>448</v>
@@ -16583,13 +16612,16 @@
       <c r="C1118">
         <v>3.5</v>
       </c>
+      <c r="D1118" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B1119" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1119">
         <v>3.5</v>
@@ -16597,119 +16629,119 @@
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1120">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
         <v>1295</v>
       </c>
-      <c r="B1120" t="s">
+      <c r="B1121" t="s">
         <v>697</v>
       </c>
-      <c r="C1120">
-        <v>3.5</v>
-      </c>
-      <c r="D1120" t="s">
+      <c r="C1121">
+        <v>3.5</v>
+      </c>
+      <c r="D1121" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1121" t="s">
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
         <v>1296</v>
       </c>
-      <c r="C1121">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1122" t="s">
+      <c r="C1122">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
         <v>450</v>
       </c>
-      <c r="B1122" t="s">
+      <c r="B1123" t="s">
         <v>450</v>
       </c>
-      <c r="C1122">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1123" t="s">
+      <c r="C1123">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
         <v>742</v>
       </c>
-      <c r="B1123" t="s">
+      <c r="B1124" t="s">
         <v>613</v>
       </c>
-      <c r="C1123">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1124" t="s">
+      <c r="C1124">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
         <v>451</v>
       </c>
-      <c r="B1124" t="s">
+      <c r="B1125" t="s">
         <v>451</v>
       </c>
-      <c r="C1124">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1125" t="s">
+      <c r="C1125">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
         <v>544</v>
       </c>
-      <c r="B1125" t="s">
+      <c r="B1126" t="s">
         <v>544</v>
       </c>
-      <c r="C1125">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1126" t="s">
+      <c r="C1126">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
         <v>1297</v>
       </c>
-      <c r="C1126">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1127" t="s">
+      <c r="C1127">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
         <v>520</v>
       </c>
-      <c r="B1127" t="s">
+      <c r="B1128" t="s">
         <v>520</v>
       </c>
-      <c r="C1127">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1128" t="s">
+      <c r="C1128">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
         <v>1298</v>
       </c>
-      <c r="C1128">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1129" t="s">
+      <c r="C1129">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
         <v>1299</v>
       </c>
-      <c r="C1129">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1130" t="s">
+      <c r="C1130">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
         <v>452</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1130">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1131" t="s">
-        <v>1300</v>
       </c>
       <c r="B1131" t="s">
         <v>452</v>
@@ -16718,9 +16750,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1132" t="s">
         <v>452</v>
@@ -16729,33 +16761,36 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1133">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
         <v>1302</v>
       </c>
-      <c r="C1133">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1134" t="s">
+      <c r="C1134">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
         <v>1303</v>
       </c>
-      <c r="C1134">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1135" t="s">
+      <c r="C1135">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
         <v>1304</v>
-      </c>
-      <c r="C1135">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1136" t="s">
-        <v>1305</v>
       </c>
       <c r="C1136">
         <v>3.5</v>
@@ -16763,7 +16798,7 @@
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C1137">
         <v>3.5</v>
@@ -16771,7 +16806,7 @@
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C1138">
         <v>3.5</v>
@@ -16779,7 +16814,7 @@
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C1139">
         <v>3.5</v>
@@ -16787,7 +16822,7 @@
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C1140">
         <v>3.5</v>
@@ -16795,10 +16830,7 @@
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>453</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>453</v>
+        <v>1309</v>
       </c>
       <c r="C1141">
         <v>3.5</v>
@@ -16806,10 +16838,10 @@
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>743</v>
+        <v>453</v>
       </c>
       <c r="B1142" t="s">
-        <v>614</v>
+        <v>453</v>
       </c>
       <c r="C1142">
         <v>3.5</v>
@@ -16817,7 +16849,10 @@
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>1310</v>
+        <v>743</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>614</v>
       </c>
       <c r="C1143">
         <v>3.5</v>
@@ -16825,7 +16860,7 @@
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C1144">
         <v>3.5</v>
@@ -16833,10 +16868,7 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>454</v>
+        <v>1311</v>
       </c>
       <c r="C1145">
         <v>3.5</v>
@@ -16844,10 +16876,10 @@
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>1312</v>
+        <v>454</v>
       </c>
       <c r="B1146" t="s">
-        <v>677</v>
+        <v>454</v>
       </c>
       <c r="C1146">
         <v>3.5</v>
@@ -16855,7 +16887,7 @@
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1147" t="s">
         <v>677</v>
@@ -16866,7 +16898,7 @@
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1148" t="s">
         <v>677</v>
@@ -16877,7 +16909,7 @@
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1149" t="s">
         <v>677</v>
@@ -16888,7 +16920,7 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1150" t="s">
         <v>677</v>
@@ -16899,7 +16931,7 @@
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1151" t="s">
         <v>677</v>
@@ -16910,7 +16942,7 @@
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1152" t="s">
         <v>677</v>
@@ -16921,7 +16953,7 @@
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1153" t="s">
         <v>677</v>
@@ -16932,7 +16964,7 @@
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1154" t="s">
         <v>677</v>
@@ -16943,7 +16975,7 @@
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1155" t="s">
         <v>677</v>
@@ -16954,10 +16986,10 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1156" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C1156">
         <v>3.5</v>
@@ -16965,7 +16997,7 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1157" t="s">
         <v>678</v>
@@ -16976,10 +17008,10 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1158" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1158">
         <v>3.5</v>
@@ -16987,7 +17019,7 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1159" t="s">
         <v>679</v>
@@ -16998,7 +17030,7 @@
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1160" t="s">
         <v>679</v>
@@ -17009,7 +17041,7 @@
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1161" t="s">
         <v>679</v>
@@ -17020,7 +17052,7 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1162" t="s">
         <v>679</v>
@@ -17031,10 +17063,10 @@
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1163" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1163">
         <v>3.5</v>
@@ -17042,10 +17074,10 @@
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1164" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C1164">
         <v>3.5</v>
@@ -17053,7 +17085,7 @@
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1165" t="s">
         <v>680</v>
@@ -17064,10 +17096,10 @@
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1166" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C1166">
         <v>3.5</v>
@@ -17075,7 +17107,7 @@
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1167" t="s">
         <v>678</v>
@@ -17086,10 +17118,10 @@
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1168" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C1168">
         <v>3.5</v>
@@ -17097,10 +17129,10 @@
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1169" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C1169">
         <v>3.5</v>
@@ -17108,10 +17140,10 @@
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1170" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C1170">
         <v>3.5</v>
@@ -17119,10 +17151,10 @@
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1171" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C1171">
         <v>3.5</v>
@@ -17130,10 +17162,10 @@
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1172" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C1172">
         <v>3.5</v>
@@ -17141,7 +17173,7 @@
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1173" t="s">
         <v>679</v>
@@ -17152,7 +17184,7 @@
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1174" t="s">
         <v>679</v>
@@ -17163,10 +17195,10 @@
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1175" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1175">
         <v>3.5</v>
@@ -17174,10 +17206,10 @@
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1176" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1176">
         <v>3.5</v>
@@ -17185,10 +17217,10 @@
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1177" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C1177">
         <v>3.5</v>
@@ -17196,7 +17228,7 @@
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1178" t="s">
         <v>681</v>
@@ -17207,7 +17239,7 @@
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1179" t="s">
         <v>681</v>
@@ -17218,10 +17250,10 @@
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1180" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C1180">
         <v>3.5</v>
@@ -17229,7 +17261,7 @@
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1181" t="s">
         <v>683</v>
@@ -17240,7 +17272,7 @@
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1182" t="s">
         <v>683</v>
@@ -17251,7 +17283,7 @@
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1183" t="s">
         <v>683</v>
@@ -17262,7 +17294,7 @@
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1184" t="s">
         <v>683</v>
@@ -17273,7 +17305,7 @@
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1185" t="s">
         <v>683</v>
@@ -17284,7 +17316,7 @@
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1186" t="s">
         <v>683</v>
@@ -17295,10 +17327,10 @@
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1187" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C1187">
         <v>3.5</v>
@@ -17306,10 +17338,10 @@
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1188" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1188">
         <v>3.5</v>
@@ -17317,10 +17349,10 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1189" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1189">
         <v>3.5</v>
@@ -17328,7 +17360,7 @@
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1190" t="s">
         <v>679</v>
@@ -17339,10 +17371,10 @@
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1191" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1191">
         <v>3.5</v>
@@ -17350,10 +17382,10 @@
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1192" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1192">
         <v>3.5</v>
@@ -17361,10 +17393,10 @@
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1193" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C1193">
         <v>3.5</v>
@@ -17372,10 +17404,10 @@
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1194" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C1194">
         <v>3.5</v>
@@ -17383,10 +17415,10 @@
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1195" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1195">
         <v>3.5</v>
@@ -17394,7 +17426,7 @@
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1196" t="s">
         <v>679</v>
@@ -17405,7 +17437,7 @@
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1197" t="s">
         <v>679</v>
@@ -17416,10 +17448,10 @@
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1198" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1198">
         <v>3.5</v>
@@ -17427,7 +17459,7 @@
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1199" t="s">
         <v>678</v>
@@ -17438,10 +17470,10 @@
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1200" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1200">
         <v>3.5</v>
@@ -17449,7 +17481,7 @@
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1201" t="s">
         <v>679</v>
@@ -17460,7 +17492,7 @@
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1202" t="s">
         <v>679</v>
@@ -17471,7 +17503,7 @@
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1203" t="s">
         <v>679</v>
@@ -17482,10 +17514,10 @@
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1204" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1204">
         <v>3.5</v>
@@ -17493,7 +17525,7 @@
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1205" t="s">
         <v>678</v>
@@ -17504,10 +17536,10 @@
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1206" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C1206">
         <v>3.5</v>
@@ -17515,7 +17547,7 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1207" t="s">
         <v>677</v>
@@ -17526,7 +17558,7 @@
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1208" t="s">
         <v>677</v>
@@ -17537,7 +17569,7 @@
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B1209" t="s">
         <v>677</v>
@@ -17548,7 +17580,7 @@
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1210" t="s">
         <v>677</v>
@@ -17559,7 +17591,7 @@
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1211" t="s">
         <v>677</v>
@@ -17570,7 +17602,7 @@
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1212" t="s">
         <v>677</v>
@@ -17581,7 +17613,7 @@
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1213" t="s">
         <v>677</v>
@@ -17592,7 +17624,7 @@
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1214" t="s">
         <v>677</v>
@@ -17603,7 +17635,7 @@
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1215" t="s">
         <v>677</v>
@@ -17614,10 +17646,10 @@
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1216" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C1216">
         <v>3.5</v>
@@ -17625,7 +17657,7 @@
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1217" t="s">
         <v>678</v>
@@ -17636,10 +17668,10 @@
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1218" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1218">
         <v>3.5</v>
@@ -17647,7 +17679,7 @@
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1219" t="s">
         <v>679</v>
@@ -17658,7 +17690,7 @@
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1220" t="s">
         <v>679</v>
@@ -17669,7 +17701,7 @@
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1221" t="s">
         <v>679</v>
@@ -17680,7 +17712,7 @@
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1222" t="s">
         <v>679</v>
@@ -17691,10 +17723,10 @@
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1223" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1223">
         <v>3.5</v>
@@ -17702,10 +17734,10 @@
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1224" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C1224">
         <v>3.5</v>
@@ -17713,7 +17745,7 @@
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1225" t="s">
         <v>680</v>
@@ -17724,10 +17756,10 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1226" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C1226">
         <v>3.5</v>
@@ -17735,7 +17767,7 @@
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1227" t="s">
         <v>678</v>
@@ -17746,10 +17778,10 @@
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1228" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C1228">
         <v>3.5</v>
@@ -17757,10 +17789,10 @@
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1229" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C1229">
         <v>3.5</v>
@@ -17768,10 +17800,10 @@
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1230" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C1230">
         <v>3.5</v>
@@ -17779,10 +17811,10 @@
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1231" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C1231">
         <v>3.5</v>
@@ -17790,10 +17822,10 @@
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1232" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C1232">
         <v>3.5</v>
@@ -17801,7 +17833,7 @@
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1233" t="s">
         <v>679</v>
@@ -17812,7 +17844,7 @@
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1234" t="s">
         <v>679</v>
@@ -17823,10 +17855,10 @@
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1235" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1235">
         <v>3.5</v>
@@ -17834,10 +17866,10 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1236" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1236">
         <v>3.5</v>
@@ -17845,10 +17877,10 @@
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1237" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C1237">
         <v>3.5</v>
@@ -17856,7 +17888,7 @@
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1238" t="s">
         <v>681</v>
@@ -17867,7 +17899,7 @@
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1239" t="s">
         <v>681</v>
@@ -17878,10 +17910,10 @@
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1240" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C1240">
         <v>3.5</v>
@@ -17889,7 +17921,7 @@
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1241" t="s">
         <v>683</v>
@@ -17900,7 +17932,7 @@
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1242" t="s">
         <v>683</v>
@@ -17911,7 +17943,7 @@
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1243" t="s">
         <v>683</v>
@@ -17922,7 +17954,7 @@
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1244" t="s">
         <v>683</v>
@@ -17933,7 +17965,7 @@
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1245" t="s">
         <v>683</v>
@@ -17944,7 +17976,7 @@
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1246" t="s">
         <v>683</v>
@@ -17955,10 +17987,10 @@
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1247" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C1247">
         <v>3.5</v>
@@ -17966,10 +17998,10 @@
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1248" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1248">
         <v>3.5</v>
@@ -17977,10 +18009,10 @@
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1249" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1249">
         <v>3.5</v>
@@ -17988,7 +18020,7 @@
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1250" t="s">
         <v>679</v>
@@ -17999,10 +18031,10 @@
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1251" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1251">
         <v>3.5</v>
@@ -18010,10 +18042,10 @@
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1252" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1252">
         <v>3.5</v>
@@ -18021,10 +18053,10 @@
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1253" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C1253">
         <v>3.5</v>
@@ -18032,10 +18064,10 @@
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1254" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C1254">
         <v>3.5</v>
@@ -18043,10 +18075,10 @@
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1255" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1255">
         <v>3.5</v>
@@ -18054,7 +18086,7 @@
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1256" t="s">
         <v>679</v>
@@ -18065,7 +18097,7 @@
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1257" t="s">
         <v>679</v>
@@ -18076,10 +18108,10 @@
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1258" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1258">
         <v>3.5</v>
@@ -18087,7 +18119,7 @@
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1259" t="s">
         <v>678</v>
@@ -18098,10 +18130,10 @@
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1260" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C1260">
         <v>3.5</v>
@@ -18109,7 +18141,7 @@
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1261" t="s">
         <v>679</v>
@@ -18120,7 +18152,7 @@
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1262" t="s">
         <v>679</v>
@@ -18131,7 +18163,7 @@
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1263" t="s">
         <v>679</v>
@@ -18142,10 +18174,10 @@
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1264" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1264">
         <v>3.5</v>
@@ -18153,7 +18185,7 @@
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1265" t="s">
         <v>678</v>
@@ -18164,10 +18196,10 @@
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>455</v>
+        <v>1431</v>
       </c>
       <c r="B1266" t="s">
-        <v>455</v>
+        <v>678</v>
       </c>
       <c r="C1266">
         <v>3.5</v>
@@ -18175,10 +18207,10 @@
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>744</v>
+        <v>455</v>
       </c>
       <c r="B1267" t="s">
-        <v>615</v>
+        <v>455</v>
       </c>
       <c r="C1267">
         <v>3.5</v>
@@ -18186,10 +18218,10 @@
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>456</v>
+        <v>744</v>
       </c>
       <c r="B1268" t="s">
-        <v>456</v>
+        <v>615</v>
       </c>
       <c r="C1268">
         <v>3.5</v>
@@ -18197,7 +18229,10 @@
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>1432</v>
+        <v>456</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>456</v>
       </c>
       <c r="C1269">
         <v>3.5</v>
@@ -18205,21 +18240,15 @@
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B1270" t="s">
-        <v>457</v>
+        <v>1432</v>
       </c>
       <c r="C1270">
         <v>3.5</v>
-      </c>
-      <c r="D1270" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>457</v>
+        <v>1433</v>
       </c>
       <c r="B1271" t="s">
         <v>457</v>
@@ -18227,13 +18256,16 @@
       <c r="C1271">
         <v>3.5</v>
       </c>
+      <c r="D1271" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B1272" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1272">
         <v>3.5</v>
@@ -18241,35 +18273,35 @@
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>1434</v>
+        <v>458</v>
       </c>
       <c r="B1273" t="s">
-        <v>698</v>
+        <v>458</v>
       </c>
       <c r="C1273">
         <v>3.5</v>
-      </c>
-      <c r="D1273" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>459</v>
+        <v>1434</v>
       </c>
       <c r="B1274" t="s">
-        <v>459</v>
+        <v>698</v>
       </c>
       <c r="C1274">
         <v>3.5</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>1435</v>
+        <v>459</v>
       </c>
       <c r="B1275" t="s">
-        <v>231</v>
+        <v>459</v>
       </c>
       <c r="C1275">
         <v>3.5</v>
@@ -18277,7 +18309,10 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>1436</v>
+        <v>1435</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>231</v>
       </c>
       <c r="C1276">
         <v>3.5</v>
@@ -18285,10 +18320,7 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1277" t="s">
-        <v>460</v>
+        <v>1436</v>
       </c>
       <c r="C1277">
         <v>3.5</v>
@@ -18296,10 +18328,10 @@
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B1278" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1278">
         <v>3.5</v>
@@ -18307,10 +18339,10 @@
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B1279" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C1279">
         <v>3.5</v>
@@ -18318,7 +18350,10 @@
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
-        <v>1437</v>
+        <v>462</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>462</v>
       </c>
       <c r="C1280">
         <v>3.5</v>
@@ -18326,10 +18361,7 @@
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>463</v>
+        <v>1437</v>
       </c>
       <c r="C1281">
         <v>3.5</v>
@@ -18337,10 +18369,10 @@
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B1282" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1282">
         <v>3.5</v>
@@ -18348,10 +18380,10 @@
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B1283" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1283">
         <v>3.5</v>
@@ -18359,10 +18391,10 @@
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B1284" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1284">
         <v>3.5</v>
@@ -18370,10 +18402,10 @@
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B1285" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1285">
         <v>3.5</v>
@@ -18381,10 +18413,10 @@
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1286" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C1286">
         <v>3.5</v>
@@ -18392,10 +18424,10 @@
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B1287" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1287">
         <v>3.5</v>
@@ -18403,7 +18435,10 @@
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>1438</v>
+        <v>469</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>469</v>
       </c>
       <c r="C1288">
         <v>3.5</v>
@@ -18411,7 +18446,7 @@
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C1289">
         <v>3.5</v>
@@ -18419,7 +18454,7 @@
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C1290">
         <v>3.5</v>
@@ -18427,7 +18462,7 @@
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C1291">
         <v>3.5</v>
@@ -18435,10 +18470,7 @@
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>545</v>
-      </c>
-      <c r="B1292" t="s">
-        <v>545</v>
+        <v>1441</v>
       </c>
       <c r="C1292">
         <v>3.5</v>
@@ -18446,10 +18478,10 @@
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>1442</v>
+        <v>545</v>
       </c>
       <c r="B1293" t="s">
-        <v>699</v>
+        <v>545</v>
       </c>
       <c r="C1293">
         <v>3.5</v>
@@ -18457,10 +18489,10 @@
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>36</v>
+        <v>1442</v>
       </c>
       <c r="B1294" t="s">
-        <v>36</v>
+        <v>699</v>
       </c>
       <c r="C1294">
         <v>3.5</v>
@@ -18468,10 +18500,10 @@
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>1443</v>
+        <v>36</v>
       </c>
       <c r="B1295" t="s">
-        <v>523</v>
+        <v>36</v>
       </c>
       <c r="C1295">
         <v>3.5</v>
@@ -18479,10 +18511,10 @@
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1296" t="s">
-        <v>36</v>
+        <v>523</v>
       </c>
       <c r="C1296">
         <v>3.5</v>
@@ -18490,10 +18522,10 @@
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>521</v>
+        <v>1444</v>
       </c>
       <c r="B1297" t="s">
-        <v>521</v>
+        <v>36</v>
       </c>
       <c r="C1297">
         <v>3.5</v>
@@ -18501,10 +18533,10 @@
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B1298" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1298">
         <v>3.5</v>
@@ -18512,10 +18544,10 @@
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B1299" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1299">
         <v>3.5</v>
@@ -18523,10 +18555,10 @@
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="B1300" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="C1300">
         <v>3.5</v>
@@ -18534,10 +18566,10 @@
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B1301" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1301">
         <v>3.5</v>
@@ -18545,10 +18577,10 @@
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1302" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1302">
         <v>3.5</v>
@@ -18556,7 +18588,7 @@
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>1445</v>
+        <v>472</v>
       </c>
       <c r="B1303" t="s">
         <v>472</v>
@@ -18567,7 +18599,10 @@
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>1446</v>
+        <v>1445</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>472</v>
       </c>
       <c r="C1304">
         <v>3.5</v>
@@ -18575,7 +18610,7 @@
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C1305">
         <v>3.5</v>
@@ -18583,10 +18618,7 @@
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B1306" t="s">
-        <v>700</v>
+        <v>1447</v>
       </c>
       <c r="C1306">
         <v>3.5</v>
@@ -18594,10 +18626,10 @@
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>473</v>
+        <v>1448</v>
       </c>
       <c r="B1307" t="s">
-        <v>473</v>
+        <v>700</v>
       </c>
       <c r="C1307">
         <v>3.5</v>
@@ -18605,7 +18637,10 @@
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>1449</v>
+        <v>473</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>473</v>
       </c>
       <c r="C1308">
         <v>3.5</v>
@@ -18613,7 +18648,7 @@
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C1309">
         <v>3.5</v>
@@ -18621,7 +18656,7 @@
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C1310">
         <v>3.5</v>
@@ -18629,7 +18664,7 @@
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C1311">
         <v>3.5</v>
@@ -18637,7 +18672,7 @@
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C1312">
         <v>3.5</v>
@@ -18645,10 +18680,7 @@
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>566</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>566</v>
+        <v>1453</v>
       </c>
       <c r="C1313">
         <v>3.5</v>
@@ -18656,10 +18688,10 @@
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B1314" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C1314">
         <v>3.5</v>
@@ -18667,7 +18699,10 @@
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>1454</v>
+        <v>565</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>565</v>
       </c>
       <c r="C1315">
         <v>3.5</v>
@@ -18675,10 +18710,7 @@
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>567</v>
-      </c>
-      <c r="B1316" t="s">
-        <v>567</v>
+        <v>1454</v>
       </c>
       <c r="C1316">
         <v>3.5</v>
@@ -18686,10 +18718,10 @@
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B1317" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C1317">
         <v>3.5</v>
@@ -18697,7 +18729,10 @@
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>1455</v>
+        <v>568</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>568</v>
       </c>
       <c r="C1318">
         <v>3.5</v>
@@ -18705,7 +18740,7 @@
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C1319">
         <v>3.5</v>
@@ -18713,10 +18748,7 @@
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B1320" t="s">
-        <v>565</v>
+        <v>1456</v>
       </c>
       <c r="C1320">
         <v>3.5</v>
@@ -18724,10 +18756,10 @@
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>569</v>
+        <v>1457</v>
       </c>
       <c r="B1321" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C1321">
         <v>3.5</v>
@@ -18735,10 +18767,10 @@
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B1322" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1322">
         <v>3.5</v>
@@ -18746,10 +18778,10 @@
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>37</v>
+        <v>570</v>
       </c>
       <c r="B1323" t="s">
-        <v>37</v>
+        <v>570</v>
       </c>
       <c r="C1323">
         <v>3.5</v>
@@ -18757,7 +18789,7 @@
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>1458</v>
+        <v>37</v>
       </c>
       <c r="B1324" t="s">
         <v>37</v>
@@ -18768,10 +18800,10 @@
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>38</v>
+        <v>1458</v>
       </c>
       <c r="B1325" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1325">
         <v>3.5</v>
@@ -18779,10 +18811,10 @@
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>1459</v>
+        <v>38</v>
       </c>
       <c r="B1326" t="s">
-        <v>701</v>
+        <v>38</v>
       </c>
       <c r="C1326">
         <v>3.5</v>
@@ -18790,7 +18822,10 @@
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>1460</v>
+        <v>1459</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>701</v>
       </c>
       <c r="C1327">
         <v>3.5</v>
@@ -18798,7 +18833,7 @@
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C1328">
         <v>3.5</v>
@@ -18806,10 +18841,7 @@
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1329" t="s">
-        <v>524</v>
+        <v>1461</v>
       </c>
       <c r="C1329">
         <v>3.5</v>
@@ -18817,10 +18849,10 @@
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1330" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1330">
         <v>3.5</v>
@@ -18828,7 +18860,10 @@
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>1462</v>
+        <v>525</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>525</v>
       </c>
       <c r="C1331">
         <v>3.5</v>
@@ -18836,7 +18871,7 @@
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C1332">
         <v>3.5</v>
@@ -18844,7 +18879,7 @@
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C1333">
         <v>3.5</v>
@@ -18852,7 +18887,7 @@
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C1334">
         <v>3.5</v>
@@ -18860,10 +18895,7 @@
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>474</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>474</v>
+        <v>1465</v>
       </c>
       <c r="C1335">
         <v>3.5</v>
@@ -18871,7 +18903,10 @@
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
-        <v>1466</v>
+        <v>474</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>474</v>
       </c>
       <c r="C1336">
         <v>3.5</v>
@@ -18879,32 +18914,29 @@
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>79</v>
+        <v>1466</v>
       </c>
       <c r="C1337">
         <v>3.5</v>
-      </c>
-      <c r="D1337" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>475</v>
+        <v>1467</v>
       </c>
       <c r="B1338" t="s">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="C1338">
         <v>3.5</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
-        <v>1468</v>
+        <v>475</v>
       </c>
       <c r="B1339" t="s">
         <v>475</v>
@@ -18915,7 +18947,7 @@
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1340" t="s">
         <v>475</v>
@@ -18926,7 +18958,10 @@
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>1470</v>
+        <v>1469</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>475</v>
       </c>
       <c r="C1341">
         <v>3.5</v>
@@ -18934,10 +18969,7 @@
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B1342" t="s">
-        <v>475</v>
+        <v>1470</v>
       </c>
       <c r="C1342">
         <v>3.5</v>
@@ -18945,7 +18977,7 @@
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1343" t="s">
         <v>475</v>
@@ -18956,7 +18988,10 @@
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>1473</v>
+        <v>1472</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>475</v>
       </c>
       <c r="C1344">
         <v>3.5</v>
@@ -18964,10 +18999,7 @@
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>476</v>
-      </c>
-      <c r="B1345" t="s">
-        <v>476</v>
+        <v>1473</v>
       </c>
       <c r="C1345">
         <v>3.5</v>
@@ -18975,10 +19007,10 @@
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1346" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1346">
         <v>3.5</v>
@@ -18986,10 +19018,10 @@
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>1474</v>
+        <v>477</v>
       </c>
       <c r="B1347" t="s">
-        <v>702</v>
+        <v>477</v>
       </c>
       <c r="C1347">
         <v>3.5</v>
@@ -18997,10 +19029,10 @@
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>546</v>
+        <v>1474</v>
       </c>
       <c r="B1348" t="s">
-        <v>546</v>
+        <v>702</v>
       </c>
       <c r="C1348">
         <v>3.5</v>
@@ -19008,7 +19040,7 @@
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>1475</v>
+        <v>546</v>
       </c>
       <c r="B1349" t="s">
         <v>546</v>
@@ -19019,7 +19051,7 @@
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1350" t="s">
         <v>546</v>
@@ -19030,7 +19062,10 @@
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>1477</v>
+        <v>1476</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>546</v>
       </c>
       <c r="C1351">
         <v>3.5</v>
@@ -19038,7 +19073,7 @@
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C1352">
         <v>3.5</v>
@@ -19046,18 +19081,15 @@
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>1513</v>
+        <v>1478</v>
       </c>
       <c r="C1353">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B1354" t="s">
-        <v>87</v>
+        <v>1513</v>
       </c>
       <c r="C1354">
         <v>3.6</v>
@@ -19065,10 +19097,10 @@
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>1514</v>
+        <v>1481</v>
       </c>
       <c r="B1355" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1355">
         <v>3.6</v>
@@ -19076,7 +19108,10 @@
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>1515</v>
+        <v>1514</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>88</v>
       </c>
       <c r="C1356">
         <v>3.6</v>
@@ -19084,10 +19119,7 @@
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>96</v>
+        <v>1515</v>
       </c>
       <c r="C1357">
         <v>3.6</v>
@@ -19095,10 +19127,10 @@
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>1516</v>
+        <v>1482</v>
       </c>
       <c r="B1358" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C1358">
         <v>3.6</v>
@@ -19106,10 +19138,10 @@
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1359" t="s">
-        <v>1518</v>
+        <v>114</v>
       </c>
       <c r="C1359">
         <v>3.6</v>
@@ -19117,10 +19149,10 @@
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B1360" t="s">
-        <v>529</v>
+        <v>1518</v>
       </c>
       <c r="C1360">
         <v>3.6</v>
@@ -19128,7 +19160,10 @@
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>1483</v>
+        <v>1519</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>529</v>
       </c>
       <c r="C1361">
         <v>3.6</v>
@@ -19136,10 +19171,7 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B1362" t="s">
-        <v>130</v>
+        <v>1483</v>
       </c>
       <c r="C1362">
         <v>3.6</v>
@@ -19147,7 +19179,10 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>1520</v>
+        <v>1484</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>130</v>
       </c>
       <c r="C1363">
         <v>3.6</v>
@@ -19155,7 +19190,7 @@
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C1364">
         <v>3.6</v>
@@ -19163,7 +19198,7 @@
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>1485</v>
+        <v>1521</v>
       </c>
       <c r="C1365">
         <v>3.6</v>
@@ -19171,7 +19206,7 @@
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
-        <v>1522</v>
+        <v>1485</v>
       </c>
       <c r="C1366">
         <v>3.6</v>
@@ -19179,7 +19214,7 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C1367">
         <v>3.6</v>
@@ -19187,10 +19222,7 @@
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B1368" t="s">
-        <v>624</v>
+        <v>1523</v>
       </c>
       <c r="C1368">
         <v>3.6</v>
@@ -19198,10 +19230,10 @@
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1369" t="s">
-        <v>531</v>
+        <v>624</v>
       </c>
       <c r="C1369">
         <v>3.6</v>
@@ -19209,10 +19241,10 @@
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1370" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="C1370">
         <v>3.6</v>
@@ -19220,10 +19252,10 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1371" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C1371">
         <v>3.6</v>
@@ -19231,10 +19263,10 @@
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
-        <v>1507</v>
+        <v>1489</v>
       </c>
       <c r="B1372" t="s">
-        <v>1508</v>
+        <v>627</v>
       </c>
       <c r="C1372">
         <v>3.6</v>
@@ -19242,7 +19274,10 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>1524</v>
+        <v>1507</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>1508</v>
       </c>
       <c r="C1373">
         <v>3.6</v>
@@ -19250,10 +19285,7 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B1374" t="s">
-        <v>533</v>
+        <v>1524</v>
       </c>
       <c r="C1374">
         <v>3.6</v>
@@ -19261,7 +19293,10 @@
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
-        <v>1525</v>
+        <v>1509</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>533</v>
       </c>
       <c r="C1375">
         <v>3.6</v>
@@ -19269,10 +19304,7 @@
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B1376" t="s">
-        <v>630</v>
+        <v>1525</v>
       </c>
       <c r="C1376">
         <v>3.6</v>
@@ -19280,7 +19312,10 @@
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
-        <v>1490</v>
+        <v>1510</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>630</v>
       </c>
       <c r="C1377">
         <v>3.6</v>
@@ -19288,7 +19323,7 @@
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="C1378">
         <v>3.6</v>
@@ -19296,10 +19331,7 @@
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>672</v>
+        <v>1526</v>
       </c>
       <c r="C1379">
         <v>3.6</v>
@@ -19307,10 +19339,10 @@
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1380" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="C1380">
         <v>3.6</v>
@@ -19318,10 +19350,10 @@
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B1381" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
       <c r="C1381">
         <v>3.6</v>
@@ -19329,10 +19361,10 @@
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1382" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1382" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1382">
         <v>3.6</v>
@@ -19340,7 +19372,10 @@
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
-        <v>1527</v>
+        <v>1494</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>535</v>
       </c>
       <c r="C1383">
         <v>3.6</v>
@@ -19348,10 +19383,7 @@
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B1384" t="s">
-        <v>632</v>
+        <v>1527</v>
       </c>
       <c r="C1384">
         <v>3.6</v>
@@ -19359,10 +19391,10 @@
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1385" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="B1385" t="s">
-        <v>536</v>
+        <v>632</v>
       </c>
       <c r="C1385">
         <v>3.6</v>
@@ -19370,10 +19402,10 @@
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
-        <v>1496</v>
+        <v>1511</v>
       </c>
       <c r="B1386" t="s">
-        <v>315</v>
+        <v>536</v>
       </c>
       <c r="C1386">
         <v>3.6</v>
@@ -19381,10 +19413,10 @@
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1387" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C1387">
         <v>3.6</v>
@@ -19392,10 +19424,10 @@
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
-        <v>1528</v>
+        <v>1497</v>
       </c>
       <c r="B1388" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C1388">
         <v>3.6</v>
@@ -19403,10 +19435,10 @@
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
-        <v>1498</v>
+        <v>1528</v>
       </c>
       <c r="B1389" t="s">
-        <v>633</v>
+        <v>344</v>
       </c>
       <c r="C1389">
         <v>3.6</v>
@@ -19414,10 +19446,10 @@
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
-        <v>1529</v>
+        <v>1498</v>
       </c>
       <c r="B1390" t="s">
-        <v>1530</v>
+        <v>633</v>
       </c>
       <c r="C1390">
         <v>3.6</v>
@@ -19425,10 +19457,10 @@
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B1391" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C1391">
         <v>3.6</v>
@@ -19436,10 +19468,10 @@
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1392" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C1392">
         <v>3.6</v>
@@ -19447,7 +19479,10 @@
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
-        <v>1533</v>
+        <v>1532</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>1532</v>
       </c>
       <c r="C1393">
         <v>3.6</v>
@@ -19455,10 +19490,7 @@
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B1394" t="s">
-        <v>486</v>
+        <v>1533</v>
       </c>
       <c r="C1394">
         <v>3.6</v>
@@ -19466,7 +19498,10 @@
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
-        <v>1534</v>
+        <v>1499</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>486</v>
       </c>
       <c r="C1395">
         <v>3.6</v>
@@ -19474,10 +19509,7 @@
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B1396" t="s">
-        <v>538</v>
+        <v>1534</v>
       </c>
       <c r="C1396">
         <v>3.6</v>
@@ -19485,10 +19517,10 @@
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
-        <v>1500</v>
+        <v>1535</v>
       </c>
       <c r="B1397" t="s">
-        <v>634</v>
+        <v>538</v>
       </c>
       <c r="C1397">
         <v>3.6</v>
@@ -19496,7 +19528,10 @@
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
-        <v>1536</v>
+        <v>1500</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>634</v>
       </c>
       <c r="C1398">
         <v>3.6</v>
@@ -19504,7 +19539,7 @@
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C1399">
         <v>3.6</v>
@@ -19512,10 +19547,7 @@
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B1400" t="s">
-        <v>637</v>
+        <v>1537</v>
       </c>
       <c r="C1400">
         <v>3.6</v>
@@ -19523,7 +19555,10 @@
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
-        <v>1538</v>
+        <v>1501</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>637</v>
       </c>
       <c r="C1401">
         <v>3.6</v>
@@ -19531,7 +19566,7 @@
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C1402">
         <v>3.6</v>
@@ -19539,10 +19574,7 @@
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B1403" t="s">
-        <v>640</v>
+        <v>1539</v>
       </c>
       <c r="C1403">
         <v>3.6</v>
@@ -19550,10 +19582,10 @@
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1404" t="s">
-        <v>1540</v>
+        <v>1502</v>
       </c>
       <c r="B1404" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="C1404">
         <v>3.6</v>
@@ -19561,10 +19593,10 @@
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B1405" t="s">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="C1405">
         <v>3.6</v>
@@ -19572,10 +19604,10 @@
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1406" t="s">
-        <v>541</v>
+        <v>423</v>
       </c>
       <c r="C1406">
         <v>3.6</v>
@@ -19583,7 +19615,10 @@
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
-        <v>1543</v>
+        <v>1542</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>541</v>
       </c>
       <c r="C1407">
         <v>3.6</v>
@@ -19591,10 +19626,7 @@
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1408" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B1408" t="s">
-        <v>430</v>
+        <v>1543</v>
       </c>
       <c r="C1408">
         <v>3.6</v>
@@ -19602,7 +19634,10 @@
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
-        <v>1503</v>
+        <v>1512</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>430</v>
       </c>
       <c r="C1409">
         <v>3.6</v>
@@ -19610,10 +19645,7 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B1410" t="s">
-        <v>643</v>
+        <v>1503</v>
       </c>
       <c r="C1410">
         <v>3.6</v>
@@ -19621,10 +19653,10 @@
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1411" t="s">
-        <v>543</v>
+        <v>643</v>
       </c>
       <c r="C1411">
         <v>3.6</v>
@@ -19632,7 +19664,10 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
-        <v>1544</v>
+        <v>1505</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>543</v>
       </c>
       <c r="C1412">
         <v>3.6</v>
@@ -19640,10 +19675,7 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B1413" t="s">
-        <v>445</v>
+        <v>1544</v>
       </c>
       <c r="C1413">
         <v>3.6</v>
@@ -19651,10 +19683,10 @@
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1414" t="s">
-        <v>544</v>
+        <v>445</v>
       </c>
       <c r="C1414">
         <v>3.6</v>
@@ -19662,7 +19694,10 @@
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
-        <v>1547</v>
+        <v>1546</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>544</v>
       </c>
       <c r="C1415">
         <v>3.6</v>
@@ -19670,7 +19705,7 @@
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C1416">
         <v>3.6</v>
@@ -19678,7 +19713,7 @@
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C1417">
         <v>3.6</v>
@@ -19686,10 +19721,7 @@
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B1418" t="s">
-        <v>545</v>
+        <v>1549</v>
       </c>
       <c r="C1418">
         <v>3.6</v>
@@ -19697,10 +19729,10 @@
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B1419" t="s">
-        <v>472</v>
+        <v>545</v>
       </c>
       <c r="C1419">
         <v>3.6</v>
@@ -19708,7 +19740,10 @@
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
-        <v>1552</v>
+        <v>1551</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>472</v>
       </c>
       <c r="C1420">
         <v>3.6</v>
@@ -19716,19 +19751,27 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B1421" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C1421">
         <v>3.6</v>
       </c>
     </row>
+    <row r="1422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1422" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C1422">
+        <v>3.6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1352" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1352">
-    <sortCondition ref="A2:A1352"/>
+  <autoFilter ref="A1:D1353" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1353">
+    <sortCondition ref="A2:A1353"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/mappings/ei36/ei_iw_mapping.xlsx
+++ b/Data/mappings/ei36/ei_iw_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\ei36\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF895D-EAA3-4CB9-A85D-3B65ACD49F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D127EAB-BE34-44B9-AE2D-56B30530FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1571">
   <si>
     <t>iw name</t>
   </si>
@@ -1987,9 +1987,6 @@
     <t>1-Butene</t>
   </si>
   <si>
-    <t>Carbon dioxide, land transformation</t>
-  </si>
-  <si>
     <t>Carbon dioxide, biogenic</t>
   </si>
   <si>
@@ -2026,9 +2023,6 @@
     <t>Dibutyltin oxide</t>
   </si>
   <si>
-    <t>Energy, unspecified</t>
-  </si>
-  <si>
     <t>cis-4-[3-(p-tert-butylphenyl)-2-methylpropyl]-2,6-dimethylmorpholine</t>
   </si>
   <si>
@@ -2056,30 +2050,6 @@
     <t>Methane, biogenic</t>
   </si>
   <si>
-    <t>Annual crops</t>
-  </si>
-  <si>
-    <t>Forest/Grassland, not used</t>
-  </si>
-  <si>
-    <t>Artificial areas</t>
-  </si>
-  <si>
-    <t>Forest, used</t>
-  </si>
-  <si>
-    <t>Pasture/meadow</t>
-  </si>
-  <si>
-    <t>Agriculture, mosaic (Agroforestry)</t>
-  </si>
-  <si>
-    <t>Permanent crops</t>
-  </si>
-  <si>
-    <t>Secondary Vegetation</t>
-  </si>
-  <si>
     <t>Oil, crude</t>
   </si>
   <si>
@@ -4694,6 +4664,78 @@
   </si>
   <si>
     <t>Parathion, methyl</t>
+  </si>
+  <si>
+    <t>Occupation, annual crops</t>
+  </si>
+  <si>
+    <t>Occupation, forest/grassland, not used</t>
+  </si>
+  <si>
+    <t>Occupation, artificial areas</t>
+  </si>
+  <si>
+    <t>Occupation, forest, used</t>
+  </si>
+  <si>
+    <t>Occupation, pasture/meadow</t>
+  </si>
+  <si>
+    <t>Occupation, agriculture, mosaic (agroforestry)</t>
+  </si>
+  <si>
+    <t>Occupation, permanent crops</t>
+  </si>
+  <si>
+    <t>Occupation, secondary vegetation</t>
+  </si>
+  <si>
+    <t>Transformation, from Annual crops</t>
+  </si>
+  <si>
+    <t>Transformation, from Forest/Grassland, not used</t>
+  </si>
+  <si>
+    <t>Transformation, from Artificial areas</t>
+  </si>
+  <si>
+    <t>Transformation, from Forest, used</t>
+  </si>
+  <si>
+    <t>Transformation, from Pasture/meadow</t>
+  </si>
+  <si>
+    <t>Transformation, from Agriculture, mosaic (Agroforestry)</t>
+  </si>
+  <si>
+    <t>Transformation, from Permanent crops</t>
+  </si>
+  <si>
+    <t>Transformation, from Secondary Vegetation</t>
+  </si>
+  <si>
+    <t>Transformation, to Annual crops</t>
+  </si>
+  <si>
+    <t>Transformation, to Forest/Grassland, not used</t>
+  </si>
+  <si>
+    <t>Transformation, to Artificial areas</t>
+  </si>
+  <si>
+    <t>Transformation, to Forest, used</t>
+  </si>
+  <si>
+    <t>Transformation, to Pasture/meadow</t>
+  </si>
+  <si>
+    <t>Transformation, to Agriculture, mosaic (Agroforestry)</t>
+  </si>
+  <si>
+    <t>Transformation, to Permanent crops</t>
+  </si>
+  <si>
+    <t>Transformation, to Secondary Vegetation</t>
   </si>
 </sst>
 </file>
@@ -5100,9 +5142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5118,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5126,7 +5166,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C2">
         <v>3.5</v>
@@ -5167,7 +5207,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C6">
         <v>3.5</v>
@@ -5186,7 +5226,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B8" t="s">
         <v>577</v>
@@ -5197,7 +5237,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B9" t="s">
         <v>645</v>
@@ -5206,12 +5246,12 @@
         <v>3.5</v>
       </c>
       <c r="D9" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B10" t="s">
         <v>586</v>
@@ -5222,7 +5262,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="C11">
         <v>3.5</v>
@@ -5241,7 +5281,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B13" t="s">
         <v>646</v>
@@ -5252,7 +5292,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B14" t="s">
         <v>578</v>
@@ -5263,7 +5303,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B15" t="s">
         <v>647</v>
@@ -5285,7 +5325,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B17" t="s">
         <v>644</v>
@@ -5296,7 +5336,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B18" t="s">
         <v>648</v>
@@ -5305,7 +5345,7 @@
         <v>3.5</v>
       </c>
       <c r="D18" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5376,7 +5416,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="C25">
         <v>3.5</v>
@@ -5439,7 +5479,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C31">
         <v>3.5</v>
@@ -5458,7 +5498,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B33" t="s">
         <v>649</v>
@@ -5467,7 +5507,7 @@
         <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5516,7 +5556,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B38" t="s">
         <v>580</v>
@@ -5527,7 +5567,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C39">
         <v>3.5</v>
@@ -5557,7 +5597,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C42">
         <v>3.5</v>
@@ -5576,7 +5616,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B44" t="s">
         <v>72</v>
@@ -5609,7 +5649,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B47" t="s">
         <v>522</v>
@@ -5618,12 +5658,12 @@
         <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C48">
         <v>3.5</v>
@@ -5642,7 +5682,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="C50">
         <v>3.5</v>
@@ -5727,7 +5767,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C58">
         <v>3.5</v>
@@ -5735,7 +5775,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B59" t="s">
         <v>621</v>
@@ -5746,7 +5786,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
@@ -5757,7 +5797,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C61">
         <v>3.5</v>
@@ -5776,7 +5816,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C63">
         <v>3.5</v>
@@ -5784,7 +5824,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B64" t="s">
         <v>619</v>
@@ -5828,7 +5868,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C68">
         <v>3.5</v>
@@ -5847,7 +5887,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B70" t="s">
         <v>620</v>
@@ -5924,7 +5964,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="C77">
         <v>3.5</v>
@@ -5954,7 +5994,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C80">
         <v>3.5</v>
@@ -5962,7 +6002,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="C81">
         <v>3.5</v>
@@ -5970,7 +6010,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C82">
         <v>3.5</v>
@@ -5989,7 +6029,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C84">
         <v>3.5</v>
@@ -5997,7 +6037,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C85">
         <v>3.5</v>
@@ -6093,7 +6133,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B94" t="s">
         <v>528</v>
@@ -6115,7 +6155,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C96">
         <v>3.5</v>
@@ -6123,7 +6163,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="C97">
         <v>3.5</v>
@@ -6131,7 +6171,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B98" t="s">
         <v>650</v>
@@ -6142,7 +6182,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C99">
         <v>3.5</v>
@@ -6183,7 +6223,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C103">
         <v>3.5</v>
@@ -6224,7 +6264,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C107">
         <v>3.5</v>
@@ -6232,7 +6272,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C108">
         <v>3.5</v>
@@ -6240,7 +6280,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B109" t="s">
         <v>585</v>
@@ -6251,7 +6291,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C110">
         <v>3.5</v>
@@ -6292,7 +6332,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B114" t="s">
         <v>651</v>
@@ -6358,7 +6398,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B120" t="s">
         <v>616</v>
@@ -6435,7 +6475,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B127" t="s">
         <v>652</v>
@@ -6446,7 +6486,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C128">
         <v>3.5</v>
@@ -6509,7 +6549,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="C134">
         <v>3.5</v>
@@ -6517,7 +6557,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C135">
         <v>3.5</v>
@@ -6525,7 +6565,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="C136">
         <v>3.5</v>
@@ -6544,7 +6584,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C138">
         <v>3.5</v>
@@ -6552,7 +6592,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C139">
         <v>3.5</v>
@@ -6560,7 +6600,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C140">
         <v>3.5</v>
@@ -6579,7 +6619,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C142">
         <v>3.5</v>
@@ -6587,7 +6627,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C143">
         <v>3.5</v>
@@ -6595,7 +6635,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C144">
         <v>3.5</v>
@@ -6603,7 +6643,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C145">
         <v>3.5</v>
@@ -6622,7 +6662,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B147" t="s">
         <v>574</v>
@@ -6633,7 +6673,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B148" t="s">
         <v>601</v>
@@ -6710,7 +6750,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C155">
         <v>3.5</v>
@@ -6729,7 +6769,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B157" t="s">
         <v>575</v>
@@ -6740,7 +6780,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B158" t="s">
         <v>653</v>
@@ -6784,7 +6824,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B162" t="s">
         <v>589</v>
@@ -6817,7 +6857,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B165" t="s">
         <v>130</v>
@@ -6828,7 +6868,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C166">
         <v>3.5</v>
@@ -6836,7 +6876,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C167">
         <v>3.5</v>
@@ -6844,7 +6884,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B168" t="s">
         <v>622</v>
@@ -6855,7 +6895,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C169">
         <v>3.5</v>
@@ -6874,7 +6914,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C171">
         <v>3.5</v>
@@ -6882,7 +6922,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C172">
         <v>3.5</v>
@@ -6945,7 +6985,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C178">
         <v>3.5</v>
@@ -6964,10 +7004,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B180" t="s">
-        <v>654</v>
+        <v>822</v>
       </c>
       <c r="C180">
         <v>3.5</v>
@@ -6975,7 +7015,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C181">
         <v>3.5</v>
@@ -6983,10 +7023,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B182" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C182">
         <v>3.5</v>
@@ -6994,7 +7034,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>835</v>
+        <v>825</v>
+      </c>
+      <c r="B183" t="s">
+        <v>825</v>
       </c>
       <c r="C183">
         <v>3.5</v>
@@ -7024,10 +7067,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B186" t="s">
-        <v>656</v>
+        <v>4</v>
       </c>
       <c r="C186">
         <v>3.5</v>
@@ -7035,10 +7078,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B187" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C187">
         <v>3.5</v>
@@ -7046,7 +7089,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C188">
         <v>3.5</v>
@@ -7065,7 +7108,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C190">
         <v>3.5</v>
@@ -7073,7 +7116,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C191">
         <v>3.5</v>
@@ -7081,7 +7124,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B192" t="s">
         <v>588</v>
@@ -7103,7 +7146,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C194">
         <v>3.5</v>
@@ -7111,7 +7154,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B195" t="s">
         <v>138</v>
@@ -7133,7 +7176,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C197">
         <v>3.5</v>
@@ -7141,7 +7184,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C198">
         <v>3.5</v>
@@ -7149,7 +7192,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C199">
         <v>3.5</v>
@@ -7157,7 +7200,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="C200">
         <v>3.5</v>
@@ -7187,7 +7230,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C203">
         <v>3.5</v>
@@ -7217,7 +7260,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C206">
         <v>3.5</v>
@@ -7269,7 +7312,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="C211">
         <v>3.5</v>
@@ -7277,7 +7320,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C212">
         <v>3.5</v>
@@ -7285,7 +7328,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C213">
         <v>3.5</v>
@@ -7293,7 +7336,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C214">
         <v>3.5</v>
@@ -7301,21 +7344,21 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B215" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C215">
         <v>3.5</v>
       </c>
       <c r="D215" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C216">
         <v>3.5</v>
@@ -7356,7 +7399,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C220">
         <v>3.5</v>
@@ -7386,7 +7429,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C223">
         <v>3.5</v>
@@ -7416,7 +7459,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B226" t="s">
         <v>590</v>
@@ -7460,7 +7503,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C230">
         <v>3.5</v>
@@ -7468,7 +7511,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C231">
         <v>3.5</v>
@@ -7498,7 +7541,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="B234" t="s">
         <v>591</v>
@@ -7507,7 +7550,7 @@
         <v>3.5</v>
       </c>
       <c r="D234" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -7523,7 +7566,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B236" t="s">
         <v>154</v>
@@ -7534,7 +7577,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B237" t="s">
         <v>154</v>
@@ -7545,7 +7588,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B238" t="s">
         <v>591</v>
@@ -7556,7 +7599,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C239">
         <v>3.5</v>
@@ -7575,10 +7618,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B241" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C241">
         <v>3.5</v>
@@ -7586,7 +7629,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C242">
         <v>3.5</v>
@@ -7594,10 +7637,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B243" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C243">
         <v>3.5</v>
@@ -7605,7 +7648,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B244" t="s">
         <v>581</v>
@@ -7616,7 +7659,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B245" t="s">
         <v>582</v>
@@ -7627,10 +7670,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B246" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C246">
         <v>3.5</v>
@@ -7660,7 +7703,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C249">
         <v>3.5</v>
@@ -7701,7 +7744,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C253">
         <v>3.5</v>
@@ -7709,7 +7752,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C254">
         <v>3.5</v>
@@ -7717,10 +7760,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B255" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C255">
         <v>3.5</v>
@@ -7728,10 +7771,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B256" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C256">
         <v>3.5</v>
@@ -7750,7 +7793,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B258" t="s">
         <v>530</v>
@@ -7761,7 +7804,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B259" t="s">
         <v>530</v>
@@ -7772,7 +7815,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="C260">
         <v>3.5</v>
@@ -7813,10 +7856,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B264" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C264">
         <v>3.5</v>
@@ -7835,7 +7878,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B266" t="s">
         <v>161</v>
@@ -7846,7 +7889,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B267" t="s">
         <v>161</v>
@@ -7857,7 +7900,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B268" t="s">
         <v>161</v>
@@ -7868,7 +7911,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="B269" t="s">
         <v>161</v>
@@ -7879,7 +7922,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B270" t="s">
         <v>161</v>
@@ -7890,7 +7933,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B271" t="s">
         <v>161</v>
@@ -7901,7 +7944,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B272" t="s">
         <v>161</v>
@@ -7912,7 +7955,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B273" t="s">
         <v>161</v>
@@ -7923,7 +7966,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B274" t="s">
         <v>161</v>
@@ -7934,7 +7977,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B275" t="s">
         <v>161</v>
@@ -7945,7 +7988,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B276" t="s">
         <v>161</v>
@@ -7956,7 +7999,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B277" t="s">
         <v>161</v>
@@ -7967,7 +8010,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B278" t="s">
         <v>161</v>
@@ -7978,7 +8021,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C279">
         <v>3.5</v>
@@ -7986,7 +8029,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B280" t="s">
         <v>161</v>
@@ -7997,7 +8040,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B281" t="s">
         <v>161</v>
@@ -8008,7 +8051,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C282">
         <v>3.5</v>
@@ -8027,7 +8070,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C284">
         <v>3.5</v>
@@ -8035,7 +8078,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="C285">
         <v>3.5</v>
@@ -8043,7 +8086,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C286">
         <v>3.5</v>
@@ -8073,7 +8116,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="C289">
         <v>3.5</v>
@@ -8081,7 +8124,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="C290">
         <v>3.5</v>
@@ -8089,7 +8132,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C291">
         <v>3.5</v>
@@ -8119,7 +8162,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="B294" t="s">
         <v>166</v>
@@ -8152,7 +8195,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="C297">
         <v>3.5</v>
@@ -8182,7 +8225,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B300" t="s">
         <v>170</v>
@@ -8191,7 +8234,7 @@
         <v>3.5</v>
       </c>
       <c r="D300" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -8306,16 +8349,16 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B311" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C311">
         <v>3.5</v>
       </c>
       <c r="D311" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -8331,7 +8374,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C313">
         <v>3.5</v>
@@ -8350,10 +8393,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B315" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C315">
         <v>3.5</v>
@@ -8383,7 +8426,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C318">
         <v>3.5</v>
@@ -8391,16 +8434,16 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B319" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C319">
         <v>3.5</v>
       </c>
       <c r="D319" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -8438,7 +8481,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="C323">
         <v>3.5</v>
@@ -8457,7 +8500,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="C325">
         <v>3.5</v>
@@ -8476,7 +8519,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C327">
         <v>3.5</v>
@@ -8484,7 +8527,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B328" t="s">
         <v>191</v>
@@ -8493,7 +8536,7 @@
         <v>3.5</v>
       </c>
       <c r="D328" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -8553,7 +8596,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B334" t="s">
         <v>587</v>
@@ -8630,7 +8673,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C341">
         <v>3.5</v>
@@ -8649,7 +8692,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C343">
         <v>3.5</v>
@@ -8679,7 +8722,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B346" t="s">
         <v>204</v>
@@ -8688,7 +8731,7 @@
         <v>3.5</v>
       </c>
       <c r="D346" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -8748,7 +8791,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C352">
         <v>3.5</v>
@@ -8756,7 +8799,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C353">
         <v>3.5</v>
@@ -8786,7 +8829,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="C356">
         <v>3.5</v>
@@ -8805,7 +8848,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="C358">
         <v>3.5</v>
@@ -8835,7 +8878,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="C361">
         <v>3.5</v>
@@ -8843,7 +8886,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B362" t="s">
         <v>592</v>
@@ -8854,7 +8897,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B363" t="s">
         <v>593</v>
@@ -8865,7 +8908,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="C364">
         <v>3.5</v>
@@ -8906,7 +8949,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="C368">
         <v>3.5</v>
@@ -8914,7 +8957,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="C369">
         <v>3.5</v>
@@ -8922,7 +8965,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="C370">
         <v>3.5</v>
@@ -8930,7 +8973,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="C371">
         <v>3.5</v>
@@ -8949,7 +8992,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B373" t="s">
         <v>596</v>
@@ -8982,7 +9025,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="C376">
         <v>3.5</v>
@@ -9023,7 +9066,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B380" t="s">
         <v>623</v>
@@ -9034,7 +9077,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B381" t="s">
         <v>595</v>
@@ -9045,7 +9088,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="C382">
         <v>3.5</v>
@@ -9075,10 +9118,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>925</v>
-      </c>
-      <c r="B385" t="s">
-        <v>667</v>
+        <v>915</v>
       </c>
       <c r="C385">
         <v>3.5</v>
@@ -9086,10 +9126,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>926</v>
-      </c>
-      <c r="B386" t="s">
-        <v>667</v>
+        <v>916</v>
       </c>
       <c r="C386">
         <v>3.5</v>
@@ -9097,10 +9134,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>927</v>
-      </c>
-      <c r="B387" t="s">
-        <v>667</v>
+        <v>917</v>
       </c>
       <c r="C387">
         <v>3.5</v>
@@ -9108,10 +9142,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>928</v>
-      </c>
-      <c r="B388" t="s">
-        <v>667</v>
+        <v>918</v>
       </c>
       <c r="C388">
         <v>3.5</v>
@@ -9119,10 +9150,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>929</v>
-      </c>
-      <c r="B389" t="s">
-        <v>667</v>
+        <v>919</v>
       </c>
       <c r="C389">
         <v>3.5</v>
@@ -9130,10 +9158,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>930</v>
-      </c>
-      <c r="B390" t="s">
-        <v>667</v>
+        <v>920</v>
       </c>
       <c r="C390">
         <v>3.5</v>
@@ -9163,7 +9188,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B393" t="s">
         <v>594</v>
@@ -9504,7 +9529,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="C424">
         <v>3.5</v>
@@ -9523,7 +9548,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="B426" t="s">
         <v>557</v>
@@ -9545,7 +9570,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B428" t="s">
         <v>598</v>
@@ -9578,7 +9603,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="C431">
         <v>3.5</v>
@@ -9597,7 +9622,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B433" t="s">
         <v>624</v>
@@ -9608,7 +9633,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="C434">
         <v>3.5</v>
@@ -9616,7 +9641,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="C435">
         <v>3.5</v>
@@ -9624,7 +9649,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B436" t="s">
         <v>625</v>
@@ -9635,7 +9660,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="C437">
         <v>3.5</v>
@@ -9654,7 +9679,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="C439">
         <v>3.5</v>
@@ -9695,7 +9720,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="C443">
         <v>3.5</v>
@@ -9714,7 +9739,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="C445">
         <v>3.5</v>
@@ -9777,7 +9802,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C451">
         <v>3.5</v>
@@ -9785,10 +9810,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="B452" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C452">
         <v>3.5</v>
@@ -9796,7 +9821,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="C453">
         <v>3.5</v>
@@ -9837,7 +9862,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="C457">
         <v>3.5</v>
@@ -9845,7 +9870,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="C458">
         <v>3.5</v>
@@ -9853,7 +9878,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="C459">
         <v>3.5</v>
@@ -9861,7 +9886,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C460">
         <v>3.5</v>
@@ -9869,7 +9894,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="C461">
         <v>3.5</v>
@@ -9921,7 +9946,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="C466">
         <v>3.5</v>
@@ -9984,7 +10009,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="C472">
         <v>3.5</v>
@@ -10025,7 +10050,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="C476">
         <v>3.5</v>
@@ -10044,7 +10069,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="B478" t="s">
         <v>531</v>
@@ -10055,7 +10080,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B479" t="s">
         <v>531</v>
@@ -10066,7 +10091,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B480" t="s">
         <v>265</v>
@@ -10077,7 +10102,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="C481">
         <v>3.5</v>
@@ -10085,7 +10110,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="C482">
         <v>3.5</v>
@@ -10093,7 +10118,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B483" t="s">
         <v>626</v>
@@ -10104,7 +10129,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="C484">
         <v>3.5</v>
@@ -10112,7 +10137,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="C485">
         <v>3.5</v>
@@ -10120,7 +10145,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="C486">
         <v>3.5</v>
@@ -10128,7 +10153,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="C487">
         <v>3.5</v>
@@ -10158,7 +10183,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="C490">
         <v>3.5</v>
@@ -10166,7 +10191,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="C491">
         <v>3.5</v>
@@ -10218,7 +10243,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C496">
         <v>3.5</v>
@@ -10248,7 +10273,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="C499">
         <v>3.5</v>
@@ -10267,7 +10292,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="B501" t="s">
         <v>274</v>
@@ -10276,7 +10301,7 @@
         <v>3.5</v>
       </c>
       <c r="D501" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -10292,7 +10317,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="C503">
         <v>3.5</v>
@@ -10311,7 +10336,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="C505">
         <v>3.5</v>
@@ -10341,7 +10366,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="C508">
         <v>3.5</v>
@@ -10360,7 +10385,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B510" t="s">
         <v>627</v>
@@ -10371,7 +10396,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B511" t="s">
         <v>628</v>
@@ -10382,7 +10407,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="B512" t="s">
         <v>628</v>
@@ -10393,7 +10418,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="B513" t="s">
         <v>621</v>
@@ -10404,7 +10429,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="B514" t="s">
         <v>621</v>
@@ -10413,15 +10438,15 @@
         <v>3.5</v>
       </c>
       <c r="D514" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="B515" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C515">
         <v>3.5</v>
@@ -10429,10 +10454,10 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B516" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C516">
         <v>3.5</v>
@@ -10440,7 +10465,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C517">
         <v>3.5</v>
@@ -10448,7 +10473,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C518">
         <v>3.5</v>
@@ -10500,7 +10525,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="B523" t="s">
         <v>532</v>
@@ -10511,7 +10536,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="B524" t="s">
         <v>532</v>
@@ -10522,7 +10547,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="B525" t="s">
         <v>532</v>
@@ -10533,7 +10558,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="B526" t="s">
         <v>532</v>
@@ -10544,7 +10569,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B527" t="s">
         <v>532</v>
@@ -10555,7 +10580,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B528" t="s">
         <v>532</v>
@@ -10566,7 +10591,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="B529" t="s">
         <v>532</v>
@@ -10577,7 +10602,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="B530" t="s">
         <v>532</v>
@@ -10588,7 +10613,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="B531" t="s">
         <v>532</v>
@@ -10599,7 +10624,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="B532" t="s">
         <v>532</v>
@@ -10610,7 +10635,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="B533" t="s">
         <v>532</v>
@@ -10621,7 +10646,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="B534" t="s">
         <v>532</v>
@@ -10632,7 +10657,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="B535" t="s">
         <v>532</v>
@@ -10643,7 +10668,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="B536" t="s">
         <v>532</v>
@@ -10654,7 +10679,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="B537" t="s">
         <v>532</v>
@@ -10665,10 +10690,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="B538" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C538">
         <v>3.5</v>
@@ -10676,10 +10701,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="B539" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C539">
         <v>3.5</v>
@@ -10687,7 +10712,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="C540">
         <v>3.5</v>
@@ -10695,7 +10720,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B541" t="s">
         <v>629</v>
@@ -10717,7 +10742,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="C543">
         <v>3.5</v>
@@ -10725,7 +10750,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="C544">
         <v>3.5</v>
@@ -10733,7 +10758,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="C545">
         <v>3.5</v>
@@ -10752,7 +10777,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="B547" t="s">
         <v>533</v>
@@ -10785,7 +10810,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="C550">
         <v>3.5</v>
@@ -10793,7 +10818,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="C551">
         <v>3.5</v>
@@ -10801,7 +10826,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="C552">
         <v>3.5</v>
@@ -10809,7 +10834,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C553">
         <v>3.5</v>
@@ -10883,7 +10908,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="B560" t="s">
         <v>556</v>
@@ -10892,12 +10917,12 @@
         <v>3.5</v>
       </c>
       <c r="D560" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B561" t="s">
         <v>557</v>
@@ -10906,7 +10931,7 @@
         <v>3.5</v>
       </c>
       <c r="D561" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -10933,7 +10958,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="B564" t="s">
         <v>30</v>
@@ -10942,12 +10967,12 @@
         <v>3.5</v>
       </c>
       <c r="D564" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="C565">
         <v>3.5</v>
@@ -10955,7 +10980,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="C566">
         <v>3.5</v>
@@ -10963,7 +10988,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C567">
         <v>3.5</v>
@@ -10971,7 +10996,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C568">
         <v>3.5</v>
@@ -10979,7 +11004,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="C569">
         <v>3.5</v>
@@ -10987,7 +11012,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="C570">
         <v>3.5</v>
@@ -10995,7 +11020,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="C571">
         <v>3.5</v>
@@ -11014,7 +11039,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C573">
         <v>3.5</v>
@@ -11033,7 +11058,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C575">
         <v>3.5</v>
@@ -11074,7 +11099,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="C579">
         <v>3.5</v>
@@ -11115,7 +11140,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B583" t="s">
         <v>630</v>
@@ -11137,7 +11162,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C585">
         <v>3.5</v>
@@ -11145,7 +11170,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="C586">
         <v>3.5</v>
@@ -11153,7 +11178,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C587">
         <v>3.5</v>
@@ -11161,7 +11186,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C588">
         <v>3.5</v>
@@ -11202,7 +11227,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C592">
         <v>3.5</v>
@@ -11210,7 +11235,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="C593">
         <v>3.5</v>
@@ -11218,7 +11243,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="C594">
         <v>3.5</v>
@@ -11237,7 +11262,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C596">
         <v>3.5</v>
@@ -11245,7 +11270,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B597" t="s">
         <v>599</v>
@@ -11256,7 +11281,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C598">
         <v>3.5</v>
@@ -11275,7 +11300,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="B600" t="s">
         <v>298</v>
@@ -11286,7 +11311,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="B601" t="s">
         <v>298</v>
@@ -11297,7 +11322,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="B602" t="s">
         <v>298</v>
@@ -11308,7 +11333,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B603" t="s">
         <v>600</v>
@@ -11319,7 +11344,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="C604">
         <v>3.5</v>
@@ -11338,7 +11363,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="C606">
         <v>3.5</v>
@@ -11379,7 +11404,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="C610">
         <v>3.5</v>
@@ -11398,7 +11423,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="C612">
         <v>3.5</v>
@@ -11406,10 +11431,10 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="B613" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C613">
         <v>3.5</v>
@@ -11417,7 +11442,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B614" t="s">
         <v>631</v>
@@ -11439,7 +11464,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C616">
         <v>3.5</v>
@@ -11469,7 +11494,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="C619">
         <v>3.5</v>
@@ -11477,7 +11502,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="C620">
         <v>3.5</v>
@@ -11485,7 +11510,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="C621">
         <v>3.5</v>
@@ -11493,7 +11518,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="C622">
         <v>3.5</v>
@@ -11501,7 +11526,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="C623">
         <v>3.5</v>
@@ -11509,7 +11534,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="C624">
         <v>3.5</v>
@@ -11539,7 +11564,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="B627" t="s">
         <v>534</v>
@@ -11550,7 +11575,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="C628">
         <v>3.5</v>
@@ -11558,7 +11583,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="C629">
         <v>3.5</v>
@@ -11566,7 +11591,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B630" t="s">
         <v>597</v>
@@ -11588,7 +11613,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B632" t="s">
         <v>305</v>
@@ -11599,7 +11624,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="B633" t="s">
         <v>305</v>
@@ -11610,7 +11635,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B634" t="s">
         <v>305</v>
@@ -11621,7 +11646,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="B635" t="s">
         <v>305</v>
@@ -11687,7 +11712,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="C641">
         <v>3.5</v>
@@ -11695,7 +11720,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B642" t="s">
         <v>535</v>
@@ -11706,7 +11731,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="C643">
         <v>3.5</v>
@@ -11714,7 +11739,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="C644">
         <v>3.5</v>
@@ -11722,7 +11747,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B645" t="s">
         <v>632</v>
@@ -11744,7 +11769,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="C647">
         <v>3.5</v>
@@ -11752,7 +11777,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="B648" t="s">
         <v>536</v>
@@ -11763,7 +11788,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="B649" t="s">
         <v>536</v>
@@ -11818,7 +11843,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="C654">
         <v>3.5</v>
@@ -11848,7 +11873,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="B657" t="s">
         <v>315</v>
@@ -11870,7 +11895,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="B659" t="s">
         <v>315</v>
@@ -11879,12 +11904,12 @@
         <v>3.5</v>
       </c>
       <c r="D659" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B660" t="s">
         <v>579</v>
@@ -11906,10 +11931,10 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="B662" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C662">
         <v>3.5</v>
@@ -11939,7 +11964,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="C665">
         <v>3.5</v>
@@ -11947,7 +11972,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="C666">
         <v>3.5</v>
@@ -11955,7 +11980,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C667">
         <v>3.5</v>
@@ -11974,7 +11999,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C669">
         <v>3.5</v>
@@ -11993,7 +12018,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="C671">
         <v>3.5</v>
@@ -12001,7 +12026,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="C672">
         <v>3.5</v>
@@ -12009,7 +12034,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="C673">
         <v>3.5</v>
@@ -12039,10 +12064,10 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="B676" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C676">
         <v>3.5</v>
@@ -12061,10 +12086,10 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="B678" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C678">
         <v>3.5</v>
@@ -12072,7 +12097,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B679" t="s">
         <v>603</v>
@@ -12094,7 +12119,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="C681">
         <v>3.5</v>
@@ -12124,7 +12149,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="B684" t="s">
         <v>30</v>
@@ -12179,7 +12204,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B689" t="s">
         <v>618</v>
@@ -12256,10 +12281,10 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="B696" t="s">
-        <v>676</v>
+        <v>30</v>
       </c>
       <c r="C696">
         <v>3.5</v>
@@ -12278,10 +12303,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="B698" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C698">
         <v>3.5</v>
@@ -12289,7 +12314,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B699" t="s">
         <v>571</v>
@@ -12300,7 +12325,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B700" t="s">
         <v>572</v>
@@ -12333,7 +12358,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="C703">
         <v>3.5</v>
@@ -12429,7 +12454,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="B712" t="s">
         <v>336</v>
@@ -12440,7 +12465,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="C713">
         <v>3.5</v>
@@ -12481,10 +12506,10 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="B717" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="C717">
         <v>3.5</v>
@@ -12492,7 +12517,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="C718">
         <v>3.5</v>
@@ -12544,7 +12569,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C723">
         <v>3.5</v>
@@ -12585,7 +12610,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="C727">
         <v>3.5</v>
@@ -12615,7 +12640,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="B730" t="s">
         <v>344</v>
@@ -12626,7 +12651,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="B731" t="s">
         <v>344</v>
@@ -12637,7 +12662,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="B732" t="s">
         <v>344</v>
@@ -12648,7 +12673,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="B733" t="s">
         <v>344</v>
@@ -12659,7 +12684,7 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="B734" t="s">
         <v>344</v>
@@ -12670,7 +12695,7 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B735" t="s">
         <v>344</v>
@@ -12681,7 +12706,7 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="B736" t="s">
         <v>344</v>
@@ -12692,7 +12717,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="C737">
         <v>3.5</v>
@@ -12700,7 +12725,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="C738">
         <v>3.5</v>
@@ -12708,7 +12733,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B739" t="s">
         <v>617</v>
@@ -12752,7 +12777,7 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="C743">
         <v>3.5</v>
@@ -12760,7 +12785,7 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B744" t="s">
         <v>605</v>
@@ -12804,7 +12829,7 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="B748" t="s">
         <v>350</v>
@@ -12837,7 +12862,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="C751">
         <v>3.5</v>
@@ -12856,7 +12881,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B753" t="s">
         <v>633</v>
@@ -12867,7 +12892,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="C754">
         <v>3.5</v>
@@ -12875,7 +12900,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="C755">
         <v>3.5</v>
@@ -12883,7 +12908,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="C756">
         <v>3.5</v>
@@ -12891,7 +12916,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="B757" t="s">
         <v>353</v>
@@ -12902,7 +12927,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="B758" t="s">
         <v>353</v>
@@ -12924,7 +12949,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B760" t="s">
         <v>353</v>
@@ -12935,7 +12960,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="B761" t="s">
         <v>353</v>
@@ -12946,7 +12971,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="B762" t="s">
         <v>353</v>
@@ -12957,7 +12982,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="C763">
         <v>3.5</v>
@@ -12965,7 +12990,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B764" t="s">
         <v>353</v>
@@ -12987,7 +13012,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="C766">
         <v>3.5</v>
@@ -13105,7 +13130,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="B777" t="s">
         <v>519</v>
@@ -13114,7 +13139,7 @@
         <v>3.5</v>
       </c>
       <c r="D777" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
@@ -13130,7 +13155,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="C779">
         <v>3.5</v>
@@ -13138,10 +13163,10 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B780" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C780">
         <v>3.5</v>
@@ -13149,10 +13174,10 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B781" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C781">
         <v>3.5</v>
@@ -13160,10 +13185,10 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B782" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C782">
         <v>3.5</v>
@@ -13171,10 +13196,10 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="B783" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C783">
         <v>3.5</v>
@@ -13182,10 +13207,10 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="B784" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C784">
         <v>3.5</v>
@@ -13193,10 +13218,10 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="B785" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C785">
         <v>3.5</v>
@@ -13204,10 +13229,10 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="B786" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C786">
         <v>3.5</v>
@@ -13215,10 +13240,10 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="B787" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C787">
         <v>3.5</v>
@@ -13226,10 +13251,10 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B788" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C788">
         <v>3.5</v>
@@ -13237,10 +13262,10 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="B789" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C789">
         <v>3.5</v>
@@ -13248,10 +13273,10 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="B790" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C790">
         <v>3.5</v>
@@ -13259,10 +13284,10 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="B791" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C791">
         <v>3.5</v>
@@ -13270,10 +13295,10 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="B792" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C792">
         <v>3.5</v>
@@ -13281,10 +13306,10 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="B793" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C793">
         <v>3.5</v>
@@ -13292,10 +13317,10 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="B794" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C794">
         <v>3.5</v>
@@ -13303,10 +13328,10 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="B795" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C795">
         <v>3.5</v>
@@ -13314,10 +13339,10 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="B796" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C796">
         <v>3.5</v>
@@ -13325,10 +13350,10 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="B797" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C797">
         <v>3.5</v>
@@ -13336,10 +13361,10 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B798" t="s">
-        <v>680</v>
+        <v>1550</v>
       </c>
       <c r="C798">
         <v>3.5</v>
@@ -13347,10 +13372,10 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="B799" t="s">
-        <v>680</v>
+        <v>1550</v>
       </c>
       <c r="C799">
         <v>3.5</v>
@@ -13358,10 +13383,10 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="B800" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C800">
         <v>3.5</v>
@@ -13369,10 +13394,10 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="B801" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C801">
         <v>3.5</v>
@@ -13380,10 +13405,10 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="B802" t="s">
-        <v>680</v>
+        <v>1550</v>
       </c>
       <c r="C802">
         <v>3.5</v>
@@ -13391,10 +13416,10 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="B803" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C803">
         <v>3.5</v>
@@ -13402,10 +13427,10 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B804" t="s">
-        <v>681</v>
+        <v>1551</v>
       </c>
       <c r="C804">
         <v>3.5</v>
@@ -13413,10 +13438,10 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="B805" t="s">
-        <v>682</v>
+        <v>1552</v>
       </c>
       <c r="C805">
         <v>3.5</v>
@@ -13424,10 +13449,10 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B806" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C806">
         <v>3.5</v>
@@ -13435,10 +13460,10 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="B807" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C807">
         <v>3.5</v>
@@ -13446,10 +13471,10 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="B808" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C808">
         <v>3.5</v>
@@ -13457,10 +13482,10 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="B809" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C809">
         <v>3.5</v>
@@ -13468,10 +13493,10 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="B810" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C810">
         <v>3.5</v>
@@ -13479,10 +13504,10 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="B811" t="s">
-        <v>681</v>
+        <v>1551</v>
       </c>
       <c r="C811">
         <v>3.5</v>
@@ -13490,10 +13515,10 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="B812" t="s">
-        <v>681</v>
+        <v>1551</v>
       </c>
       <c r="C812">
         <v>3.5</v>
@@ -13501,10 +13526,10 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="B813" t="s">
-        <v>681</v>
+        <v>1551</v>
       </c>
       <c r="C813">
         <v>3.5</v>
@@ -13512,10 +13537,10 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="B814" t="s">
-        <v>683</v>
+        <v>1553</v>
       </c>
       <c r="C814">
         <v>3.5</v>
@@ -13523,10 +13548,10 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="B815" t="s">
-        <v>683</v>
+        <v>1553</v>
       </c>
       <c r="C815">
         <v>3.5</v>
@@ -13534,10 +13559,10 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="B816" t="s">
-        <v>683</v>
+        <v>1553</v>
       </c>
       <c r="C816">
         <v>3.5</v>
@@ -13545,10 +13570,10 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="B817" t="s">
-        <v>683</v>
+        <v>1553</v>
       </c>
       <c r="C817">
         <v>3.5</v>
@@ -13556,10 +13581,10 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="B818" t="s">
-        <v>683</v>
+        <v>1553</v>
       </c>
       <c r="C818">
         <v>3.5</v>
@@ -13567,10 +13592,10 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="B819" t="s">
-        <v>683</v>
+        <v>1553</v>
       </c>
       <c r="C819">
         <v>3.5</v>
@@ -13578,10 +13603,10 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="B820" t="s">
-        <v>683</v>
+        <v>1553</v>
       </c>
       <c r="C820">
         <v>3.5</v>
@@ -13589,10 +13614,10 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="B821" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C821">
         <v>3.5</v>
@@ -13600,10 +13625,10 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="B822" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C822">
         <v>3.5</v>
@@ -13611,10 +13636,10 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="B823" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C823">
         <v>3.5</v>
@@ -13622,10 +13647,10 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="B824" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C824">
         <v>3.5</v>
@@ -13633,10 +13658,10 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="B825" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C825">
         <v>3.5</v>
@@ -13644,10 +13669,10 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="B826" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C826">
         <v>3.5</v>
@@ -13655,10 +13680,10 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="B827" t="s">
-        <v>684</v>
+        <v>1554</v>
       </c>
       <c r="C827">
         <v>3.5</v>
@@ -13666,10 +13691,10 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="B828" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C828">
         <v>3.5</v>
@@ -13677,10 +13702,10 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="B829" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C829">
         <v>3.5</v>
@@ -13688,10 +13713,10 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="B830" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C830">
         <v>3.5</v>
@@ -13699,10 +13724,10 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="B831" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C831">
         <v>3.5</v>
@@ -13710,10 +13735,10 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="B832" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C832">
         <v>3.5</v>
@@ -13721,10 +13746,10 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="B833" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C833">
         <v>3.5</v>
@@ -13732,10 +13757,10 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="B834" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C834">
         <v>3.5</v>
@@ -13743,10 +13768,10 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="B835" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C835">
         <v>3.5</v>
@@ -13754,10 +13779,10 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="B836" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C836">
         <v>3.5</v>
@@ -13765,10 +13790,10 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="B837" t="s">
-        <v>679</v>
+        <v>1549</v>
       </c>
       <c r="C837">
         <v>3.5</v>
@@ -13776,10 +13801,10 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="B838" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C838">
         <v>3.5</v>
@@ -13787,10 +13812,10 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="B839" t="s">
-        <v>678</v>
+        <v>1548</v>
       </c>
       <c r="C839">
         <v>3.5</v>
@@ -13798,7 +13823,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="C840">
         <v>3.5</v>
@@ -13817,7 +13842,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B842" t="s">
         <v>651</v>
@@ -13828,10 +13853,10 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B843" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C843">
         <v>3.5</v>
@@ -13839,7 +13864,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="C844">
         <v>3.5</v>
@@ -13847,7 +13872,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="C845">
         <v>3.5</v>
@@ -13855,10 +13880,10 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="B846" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C846">
         <v>3.5</v>
@@ -13866,7 +13891,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B847" t="s">
         <v>583</v>
@@ -13888,7 +13913,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="C849">
         <v>3.5</v>
@@ -13929,7 +13954,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="C853">
         <v>3.5</v>
@@ -13937,7 +13962,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B854" t="s">
         <v>606</v>
@@ -13959,7 +13984,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="C856">
         <v>3.5</v>
@@ -13978,7 +14003,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="C858">
         <v>3.5</v>
@@ -13986,7 +14011,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="B859" t="s">
         <v>85</v>
@@ -13995,12 +14020,12 @@
         <v>3.5</v>
       </c>
       <c r="D859" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="C860">
         <v>3.5</v>
@@ -14008,7 +14033,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="C861">
         <v>3.5</v>
@@ -14016,7 +14041,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="C862">
         <v>3.5</v>
@@ -14024,7 +14049,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="C863">
         <v>3.5</v>
@@ -14087,7 +14112,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="C869">
         <v>3.5</v>
@@ -14095,7 +14120,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="C870">
         <v>3.5</v>
@@ -14103,10 +14128,10 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="B871" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="C871">
         <v>3.5</v>
@@ -14158,7 +14183,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="C876">
         <v>3.5</v>
@@ -14166,7 +14191,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="C877">
         <v>3.5</v>
@@ -14174,10 +14199,10 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="B878" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C878">
         <v>3.5</v>
@@ -14196,7 +14221,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="C880">
         <v>3.5</v>
@@ -14204,7 +14229,7 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="C881">
         <v>3.5</v>
@@ -14245,7 +14270,7 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B885" t="s">
         <v>607</v>
@@ -14289,7 +14314,7 @@
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="C889">
         <v>3.5</v>
@@ -14319,7 +14344,7 @@
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="C892">
         <v>3.5</v>
@@ -14349,7 +14374,7 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="C895">
         <v>3.5</v>
@@ -14357,7 +14382,7 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="C896">
         <v>3.5</v>
@@ -14365,7 +14390,7 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="C897">
         <v>3.5</v>
@@ -14373,7 +14398,7 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="B898" t="s">
         <v>486</v>
@@ -14384,7 +14409,7 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="B899" t="s">
         <v>486</v>
@@ -14450,7 +14475,7 @@
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="C905">
         <v>3.5</v>
@@ -14458,7 +14483,7 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="C906">
         <v>3.5</v>
@@ -14510,7 +14535,7 @@
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B911" t="s">
         <v>537</v>
@@ -14521,7 +14546,7 @@
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="B912" t="s">
         <v>537</v>
@@ -14543,7 +14568,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="C914">
         <v>3.5</v>
@@ -14606,7 +14631,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="C920">
         <v>3.5</v>
@@ -14614,21 +14639,21 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="B921" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C921">
         <v>3.5</v>
       </c>
       <c r="D921" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="C922">
         <v>3.5</v>
@@ -14636,7 +14661,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="C923">
         <v>3.5</v>
@@ -14644,7 +14669,7 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B924" t="s">
         <v>634</v>
@@ -14655,7 +14680,7 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="C925">
         <v>3.5</v>
@@ -14696,7 +14721,7 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="C929">
         <v>3.5</v>
@@ -14704,7 +14729,7 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="C930">
         <v>3.5</v>
@@ -14811,7 +14836,7 @@
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B940" t="s">
         <v>576</v>
@@ -14899,7 +14924,7 @@
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="C948">
         <v>3.5</v>
@@ -14929,7 +14954,7 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="C951">
         <v>3.5</v>
@@ -14959,7 +14984,7 @@
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="C954">
         <v>3.5</v>
@@ -14967,7 +14992,7 @@
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="C955">
         <v>3.5</v>
@@ -14975,7 +15000,7 @@
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="B956" t="s">
         <v>537</v>
@@ -14986,7 +15011,7 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="B957" t="s">
         <v>537</v>
@@ -15008,10 +15033,10 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="B959" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C959">
         <v>3.5</v>
@@ -15030,7 +15055,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="C961">
         <v>3.5</v>
@@ -15038,7 +15063,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="C962">
         <v>3.5</v>
@@ -15046,7 +15071,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="C963">
         <v>3.5</v>
@@ -15087,7 +15112,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="B967" t="s">
         <v>412</v>
@@ -15153,7 +15178,7 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B973" t="s">
         <v>635</v>
@@ -15175,7 +15200,7 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B975" t="s">
         <v>636</v>
@@ -15208,7 +15233,7 @@
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="C978">
         <v>3.5</v>
@@ -15216,7 +15241,7 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B979" t="s">
         <v>584</v>
@@ -15238,7 +15263,7 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="B981" t="s">
         <v>420</v>
@@ -15247,12 +15272,12 @@
         <v>3.5</v>
       </c>
       <c r="D981" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="B982" t="s">
         <v>420</v>
@@ -15261,12 +15286,12 @@
         <v>3.5</v>
       </c>
       <c r="D982" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="B983" t="s">
         <v>420</v>
@@ -15275,12 +15300,12 @@
         <v>3.5</v>
       </c>
       <c r="D983" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B984" t="s">
         <v>611</v>
@@ -15291,7 +15316,7 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="C985">
         <v>3.5</v>
@@ -15299,7 +15324,7 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="B986" t="s">
         <v>523</v>
@@ -15308,12 +15333,12 @@
         <v>3.5</v>
       </c>
       <c r="D986" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="B987" t="s">
         <v>499</v>
@@ -15322,12 +15347,12 @@
         <v>3.5</v>
       </c>
       <c r="D987" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="B988" t="s">
         <v>523</v>
@@ -15336,12 +15361,12 @@
         <v>3.5</v>
       </c>
       <c r="D988" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="C989">
         <v>3.5</v>
@@ -15349,7 +15374,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="C990">
         <v>3.5</v>
@@ -15368,7 +15393,7 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="C992">
         <v>3.5</v>
@@ -15376,7 +15401,7 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="C993">
         <v>3.5</v>
@@ -15395,7 +15420,7 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C995">
         <v>3.5</v>
@@ -15403,7 +15428,7 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="C996">
         <v>3.5</v>
@@ -15411,7 +15436,7 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="C997">
         <v>3.5</v>
@@ -15419,7 +15444,7 @@
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="C998">
         <v>3.5</v>
@@ -15427,7 +15452,7 @@
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B999" t="s">
         <v>637</v>
@@ -15438,7 +15463,7 @@
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C1000">
         <v>3.5</v>
@@ -15446,7 +15471,7 @@
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C1001">
         <v>3.5</v>
@@ -15454,7 +15479,7 @@
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="C1002">
         <v>3.5</v>
@@ -15484,7 +15509,7 @@
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C1005">
         <v>3.5</v>
@@ -15492,7 +15517,7 @@
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C1006">
         <v>3.5</v>
@@ -15500,7 +15525,7 @@
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C1007">
         <v>3.5</v>
@@ -15508,7 +15533,7 @@
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C1008">
         <v>3.5</v>
@@ -15516,7 +15541,7 @@
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B1009" t="s">
         <v>640</v>
@@ -15527,10 +15552,10 @@
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B1010" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C1010">
         <v>3.5</v>
@@ -15571,10 +15596,10 @@
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B1014" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C1014">
         <v>3.5</v>
@@ -15604,7 +15629,7 @@
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C1017">
         <v>3.5</v>
@@ -15612,7 +15637,7 @@
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="C1018">
         <v>3.5</v>
@@ -15620,7 +15645,7 @@
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="C1019">
         <v>3.5</v>
@@ -15628,7 +15653,7 @@
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="C1020">
         <v>3.5</v>
@@ -15647,7 +15672,7 @@
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="B1022" t="s">
         <v>426</v>
@@ -15658,7 +15683,7 @@
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="B1023" t="s">
         <v>426</v>
@@ -15669,7 +15694,7 @@
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="B1024" t="s">
         <v>426</v>
@@ -15680,7 +15705,7 @@
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="B1025" t="s">
         <v>426</v>
@@ -15691,7 +15716,7 @@
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="B1026" t="s">
         <v>426</v>
@@ -15702,7 +15727,7 @@
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="B1027" t="s">
         <v>426</v>
@@ -15713,7 +15738,7 @@
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="B1028" t="s">
         <v>426</v>
@@ -15724,7 +15749,7 @@
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="B1029" t="s">
         <v>426</v>
@@ -15735,7 +15760,7 @@
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="B1030" t="s">
         <v>426</v>
@@ -15746,7 +15771,7 @@
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="B1031" t="s">
         <v>426</v>
@@ -15757,7 +15782,7 @@
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="B1032" t="s">
         <v>426</v>
@@ -15768,7 +15793,7 @@
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="B1033" t="s">
         <v>426</v>
@@ -15779,7 +15804,7 @@
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="B1034" t="s">
         <v>426</v>
@@ -15790,7 +15815,7 @@
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="C1035">
         <v>3.5</v>
@@ -15820,7 +15845,7 @@
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B1038" t="s">
         <v>604</v>
@@ -15831,7 +15856,7 @@
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="C1039">
         <v>3.5</v>
@@ -15839,7 +15864,7 @@
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="C1040">
         <v>3.5</v>
@@ -15847,7 +15872,7 @@
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B1041" t="s">
         <v>638</v>
@@ -15858,7 +15883,7 @@
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B1042" t="s">
         <v>639</v>
@@ -15869,7 +15894,7 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="C1043">
         <v>3.5</v>
@@ -15877,7 +15902,7 @@
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="C1044">
         <v>3.5</v>
@@ -15896,7 +15921,7 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="C1046">
         <v>3.5</v>
@@ -15904,7 +15929,7 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="C1047">
         <v>3.5</v>
@@ -15912,7 +15937,7 @@
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B1048" t="s">
         <v>641</v>
@@ -15923,7 +15948,7 @@
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="C1049">
         <v>3.5</v>
@@ -15931,10 +15956,10 @@
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="B1050" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C1050">
         <v>3.5</v>
@@ -15942,7 +15967,7 @@
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="C1051">
         <v>3.5</v>
@@ -15950,7 +15975,7 @@
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="C1052">
         <v>3.5</v>
@@ -15958,7 +15983,7 @@
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="C1053">
         <v>3.5</v>
@@ -15966,7 +15991,7 @@
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="C1054">
         <v>3.5</v>
@@ -15974,7 +15999,7 @@
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C1055">
         <v>3.5</v>
@@ -15982,7 +16007,7 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="C1056">
         <v>3.5</v>
@@ -15990,7 +16015,7 @@
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="C1057">
         <v>3.5</v>
@@ -15998,10 +16023,10 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="B1058" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C1058">
         <v>3.5</v>
@@ -16020,7 +16045,7 @@
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="C1060">
         <v>3.5</v>
@@ -16028,10 +16053,10 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="B1061" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C1061">
         <v>3.5</v>
@@ -16050,7 +16075,7 @@
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B1063" t="s">
         <v>430</v>
@@ -16061,7 +16086,7 @@
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="C1064">
         <v>3.5</v>
@@ -16069,7 +16094,7 @@
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="C1065">
         <v>3.5</v>
@@ -16088,7 +16113,7 @@
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="C1067">
         <v>3.5</v>
@@ -16107,7 +16132,7 @@
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="C1069">
         <v>3.5</v>
@@ -16126,7 +16151,7 @@
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="C1071">
         <v>3.5</v>
@@ -16134,7 +16159,7 @@
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="C1072">
         <v>3.5</v>
@@ -16142,7 +16167,7 @@
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="C1073">
         <v>3.5</v>
@@ -16238,7 +16263,7 @@
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="B1082" t="s">
         <v>542</v>
@@ -16260,7 +16285,7 @@
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="C1084">
         <v>3.5</v>
@@ -16268,7 +16293,7 @@
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="C1085">
         <v>3.5</v>
@@ -16276,7 +16301,7 @@
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B1086" t="s">
         <v>642</v>
@@ -16287,7 +16312,7 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="B1087" t="s">
         <v>643</v>
@@ -16298,7 +16323,7 @@
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B1088" t="s">
         <v>610</v>
@@ -16342,7 +16367,7 @@
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B1092" t="s">
         <v>612</v>
@@ -16375,7 +16400,7 @@
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="C1095">
         <v>3.5</v>
@@ -16394,7 +16419,7 @@
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="C1097">
         <v>3.5</v>
@@ -16402,7 +16427,7 @@
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="C1098">
         <v>3.5</v>
@@ -16410,7 +16435,7 @@
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="C1099">
         <v>3.5</v>
@@ -16451,7 +16476,7 @@
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="B1103" t="s">
         <v>543</v>
@@ -16462,7 +16487,7 @@
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="C1104">
         <v>3.5</v>
@@ -16470,7 +16495,7 @@
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="C1105">
         <v>3.5</v>
@@ -16533,21 +16558,21 @@
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="B1111" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="C1111">
         <v>3.5</v>
       </c>
       <c r="D1111" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="C1112">
         <v>3.5</v>
@@ -16577,7 +16602,7 @@
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="C1115">
         <v>3.5</v>
@@ -16585,7 +16610,7 @@
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="C1116">
         <v>3.5</v>
@@ -16604,7 +16629,7 @@
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="B1118" t="s">
         <v>448</v>
@@ -16613,7 +16638,7 @@
         <v>3.5</v>
       </c>
       <c r="D1118" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
@@ -16640,21 +16665,21 @@
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="B1121" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C1121">
         <v>3.5</v>
       </c>
       <c r="D1121" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="C1122">
         <v>3.5</v>
@@ -16673,7 +16698,7 @@
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B1124" t="s">
         <v>613</v>
@@ -16706,7 +16731,7 @@
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="C1127">
         <v>3.5</v>
@@ -16725,7 +16750,7 @@
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="C1129">
         <v>3.5</v>
@@ -16733,7 +16758,7 @@
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="C1130">
         <v>3.5</v>
@@ -16752,7 +16777,7 @@
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="B1132" t="s">
         <v>452</v>
@@ -16763,7 +16788,7 @@
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="B1133" t="s">
         <v>452</v>
@@ -16774,7 +16799,7 @@
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="C1134">
         <v>3.5</v>
@@ -16782,7 +16807,7 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="C1135">
         <v>3.5</v>
@@ -16790,7 +16815,7 @@
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C1136">
         <v>3.5</v>
@@ -16798,7 +16823,7 @@
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="C1137">
         <v>3.5</v>
@@ -16806,7 +16831,7 @@
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="C1138">
         <v>3.5</v>
@@ -16814,7 +16839,7 @@
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="C1139">
         <v>3.5</v>
@@ -16822,7 +16847,7 @@
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="C1140">
         <v>3.5</v>
@@ -16830,7 +16855,7 @@
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="C1141">
         <v>3.5</v>
@@ -16849,7 +16874,7 @@
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B1143" t="s">
         <v>614</v>
@@ -16860,7 +16885,7 @@
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="C1144">
         <v>3.5</v>
@@ -16868,7 +16893,7 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="C1145">
         <v>3.5</v>
@@ -16887,10 +16912,10 @@
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="B1147" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1147">
         <v>3.5</v>
@@ -16898,10 +16923,10 @@
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="B1148" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1148">
         <v>3.5</v>
@@ -16909,10 +16934,10 @@
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="B1149" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1149">
         <v>3.5</v>
@@ -16920,10 +16945,10 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="B1150" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1150">
         <v>3.5</v>
@@ -16931,10 +16956,10 @@
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="B1151" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1151">
         <v>3.5</v>
@@ -16942,10 +16967,10 @@
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="B1152" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1152">
         <v>3.5</v>
@@ -16953,10 +16978,10 @@
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="B1153" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1153">
         <v>3.5</v>
@@ -16964,10 +16989,10 @@
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="B1154" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1154">
         <v>3.5</v>
@@ -16975,10 +17000,10 @@
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="B1155" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1155">
         <v>3.5</v>
@@ -16986,10 +17011,10 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="B1156" t="s">
-        <v>677</v>
+        <v>1555</v>
       </c>
       <c r="C1156">
         <v>3.5</v>
@@ -16997,10 +17022,10 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="B1157" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1157">
         <v>3.5</v>
@@ -17008,10 +17033,10 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="B1158" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1158">
         <v>3.5</v>
@@ -17019,10 +17044,10 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="B1159" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1159">
         <v>3.5</v>
@@ -17030,10 +17055,10 @@
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="B1160" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1160">
         <v>3.5</v>
@@ -17041,10 +17066,10 @@
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="B1161" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1161">
         <v>3.5</v>
@@ -17052,10 +17077,10 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="B1162" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1162">
         <v>3.5</v>
@@ -17063,10 +17088,10 @@
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="B1163" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1163">
         <v>3.5</v>
@@ -17074,10 +17099,10 @@
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="B1164" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1164">
         <v>3.5</v>
@@ -17085,10 +17110,10 @@
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="B1165" t="s">
-        <v>680</v>
+        <v>1558</v>
       </c>
       <c r="C1165">
         <v>3.5</v>
@@ -17096,10 +17121,10 @@
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="B1166" t="s">
-        <v>680</v>
+        <v>1558</v>
       </c>
       <c r="C1166">
         <v>3.5</v>
@@ -17107,10 +17132,10 @@
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="B1167" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1167">
         <v>3.5</v>
@@ -17118,10 +17143,10 @@
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="B1168" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1168">
         <v>3.5</v>
@@ -17129,10 +17154,10 @@
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="B1169" t="s">
-        <v>680</v>
+        <v>1558</v>
       </c>
       <c r="C1169">
         <v>3.5</v>
@@ -17140,10 +17165,10 @@
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="B1170" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1170">
         <v>3.5</v>
@@ -17151,10 +17176,10 @@
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="B1171" t="s">
-        <v>681</v>
+        <v>1559</v>
       </c>
       <c r="C1171">
         <v>3.5</v>
@@ -17162,10 +17187,10 @@
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="B1172" t="s">
-        <v>682</v>
+        <v>1560</v>
       </c>
       <c r="C1172">
         <v>3.5</v>
@@ -17173,10 +17198,10 @@
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="B1173" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1173">
         <v>3.5</v>
@@ -17184,10 +17209,10 @@
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="B1174" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1174">
         <v>3.5</v>
@@ -17195,10 +17220,10 @@
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="B1175" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1175">
         <v>3.5</v>
@@ -17206,10 +17231,10 @@
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="B1176" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1176">
         <v>3.5</v>
@@ -17217,10 +17242,10 @@
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="B1177" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1177">
         <v>3.5</v>
@@ -17228,10 +17253,10 @@
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="B1178" t="s">
-        <v>681</v>
+        <v>1559</v>
       </c>
       <c r="C1178">
         <v>3.5</v>
@@ -17239,10 +17264,10 @@
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="B1179" t="s">
-        <v>681</v>
+        <v>1559</v>
       </c>
       <c r="C1179">
         <v>3.5</v>
@@ -17250,10 +17275,10 @@
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="B1180" t="s">
-        <v>681</v>
+        <v>1559</v>
       </c>
       <c r="C1180">
         <v>3.5</v>
@@ -17261,10 +17286,10 @@
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="B1181" t="s">
-        <v>683</v>
+        <v>1561</v>
       </c>
       <c r="C1181">
         <v>3.5</v>
@@ -17272,10 +17297,10 @@
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="B1182" t="s">
-        <v>683</v>
+        <v>1561</v>
       </c>
       <c r="C1182">
         <v>3.5</v>
@@ -17283,10 +17308,10 @@
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="B1183" t="s">
-        <v>683</v>
+        <v>1561</v>
       </c>
       <c r="C1183">
         <v>3.5</v>
@@ -17294,10 +17319,10 @@
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="B1184" t="s">
-        <v>683</v>
+        <v>1561</v>
       </c>
       <c r="C1184">
         <v>3.5</v>
@@ -17305,10 +17330,10 @@
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="B1185" t="s">
-        <v>683</v>
+        <v>1561</v>
       </c>
       <c r="C1185">
         <v>3.5</v>
@@ -17316,10 +17341,10 @@
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="B1186" t="s">
-        <v>683</v>
+        <v>1561</v>
       </c>
       <c r="C1186">
         <v>3.5</v>
@@ -17327,10 +17352,10 @@
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="B1187" t="s">
-        <v>683</v>
+        <v>1561</v>
       </c>
       <c r="C1187">
         <v>3.5</v>
@@ -17338,10 +17363,10 @@
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="B1188" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1188">
         <v>3.5</v>
@@ -17349,10 +17374,10 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="B1189" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1189">
         <v>3.5</v>
@@ -17360,10 +17385,10 @@
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="B1190" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1190">
         <v>3.5</v>
@@ -17371,10 +17396,10 @@
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="B1191" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1191">
         <v>3.5</v>
@@ -17382,10 +17407,10 @@
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="B1192" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1192">
         <v>3.5</v>
@@ -17393,10 +17418,10 @@
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="B1193" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1193">
         <v>3.5</v>
@@ -17404,10 +17429,10 @@
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="B1194" t="s">
-        <v>684</v>
+        <v>1562</v>
       </c>
       <c r="C1194">
         <v>3.5</v>
@@ -17415,10 +17440,10 @@
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="B1195" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1195">
         <v>3.5</v>
@@ -17426,10 +17451,10 @@
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="B1196" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1196">
         <v>3.5</v>
@@ -17437,10 +17462,10 @@
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="B1197" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1197">
         <v>3.5</v>
@@ -17448,10 +17473,10 @@
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="B1198" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1198">
         <v>3.5</v>
@@ -17459,10 +17484,10 @@
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="B1199" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1199">
         <v>3.5</v>
@@ -17470,10 +17495,10 @@
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="B1200" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1200">
         <v>3.5</v>
@@ -17481,10 +17506,10 @@
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="B1201" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1201">
         <v>3.5</v>
@@ -17492,10 +17517,10 @@
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="B1202" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1202">
         <v>3.5</v>
@@ -17503,10 +17528,10 @@
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="B1203" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1203">
         <v>3.5</v>
@@ -17514,10 +17539,10 @@
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="B1204" t="s">
-        <v>679</v>
+        <v>1557</v>
       </c>
       <c r="C1204">
         <v>3.5</v>
@@ -17525,10 +17550,10 @@
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="B1205" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1205">
         <v>3.5</v>
@@ -17536,10 +17561,10 @@
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="B1206" t="s">
-        <v>678</v>
+        <v>1556</v>
       </c>
       <c r="C1206">
         <v>3.5</v>
@@ -17547,10 +17572,10 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="B1207" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1207">
         <v>3.5</v>
@@ -17558,10 +17583,10 @@
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="B1208" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1208">
         <v>3.5</v>
@@ -17569,10 +17594,10 @@
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="B1209" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1209">
         <v>3.5</v>
@@ -17580,10 +17605,10 @@
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="B1210" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1210">
         <v>3.5</v>
@@ -17591,10 +17616,10 @@
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="B1211" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1211">
         <v>3.5</v>
@@ -17602,10 +17627,10 @@
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="B1212" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1212">
         <v>3.5</v>
@@ -17613,10 +17638,10 @@
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="B1213" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1213">
         <v>3.5</v>
@@ -17624,10 +17649,10 @@
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="B1214" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1214">
         <v>3.5</v>
@@ -17635,10 +17660,10 @@
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="B1215" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1215">
         <v>3.5</v>
@@ -17646,10 +17671,10 @@
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="B1216" t="s">
-        <v>677</v>
+        <v>1563</v>
       </c>
       <c r="C1216">
         <v>3.5</v>
@@ -17657,10 +17682,10 @@
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="B1217" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1217">
         <v>3.5</v>
@@ -17668,10 +17693,10 @@
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="B1218" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1218">
         <v>3.5</v>
@@ -17679,10 +17704,10 @@
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="B1219" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1219">
         <v>3.5</v>
@@ -17690,10 +17715,10 @@
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="B1220" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1220">
         <v>3.5</v>
@@ -17701,10 +17726,10 @@
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="B1221" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1221">
         <v>3.5</v>
@@ -17712,10 +17737,10 @@
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="B1222" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1222">
         <v>3.5</v>
@@ -17723,10 +17748,10 @@
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="B1223" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1223">
         <v>3.5</v>
@@ -17734,10 +17759,10 @@
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="B1224" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1224">
         <v>3.5</v>
@@ -17745,10 +17770,10 @@
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="B1225" t="s">
-        <v>680</v>
+        <v>1566</v>
       </c>
       <c r="C1225">
         <v>3.5</v>
@@ -17756,10 +17781,10 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="B1226" t="s">
-        <v>680</v>
+        <v>1566</v>
       </c>
       <c r="C1226">
         <v>3.5</v>
@@ -17767,10 +17792,10 @@
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="B1227" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1227">
         <v>3.5</v>
@@ -17778,10 +17803,10 @@
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="B1228" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1228">
         <v>3.5</v>
@@ -17789,10 +17814,10 @@
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="B1229" t="s">
-        <v>680</v>
+        <v>1566</v>
       </c>
       <c r="C1229">
         <v>3.5</v>
@@ -17800,10 +17825,10 @@
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="B1230" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1230">
         <v>3.5</v>
@@ -17811,10 +17836,10 @@
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="B1231" t="s">
-        <v>681</v>
+        <v>1567</v>
       </c>
       <c r="C1231">
         <v>3.5</v>
@@ -17822,10 +17847,10 @@
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="B1232" t="s">
-        <v>682</v>
+        <v>1568</v>
       </c>
       <c r="C1232">
         <v>3.5</v>
@@ -17833,10 +17858,10 @@
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="B1233" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1233">
         <v>3.5</v>
@@ -17844,10 +17869,10 @@
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="B1234" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1234">
         <v>3.5</v>
@@ -17855,10 +17880,10 @@
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="B1235" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1235">
         <v>3.5</v>
@@ -17866,10 +17891,10 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="B1236" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1236">
         <v>3.5</v>
@@ -17877,10 +17902,10 @@
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="B1237" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1237">
         <v>3.5</v>
@@ -17888,10 +17913,10 @@
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="B1238" t="s">
-        <v>681</v>
+        <v>1567</v>
       </c>
       <c r="C1238">
         <v>3.5</v>
@@ -17899,10 +17924,10 @@
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="B1239" t="s">
-        <v>681</v>
+        <v>1567</v>
       </c>
       <c r="C1239">
         <v>3.5</v>
@@ -17910,10 +17935,10 @@
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="B1240" t="s">
-        <v>681</v>
+        <v>1567</v>
       </c>
       <c r="C1240">
         <v>3.5</v>
@@ -17921,10 +17946,10 @@
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="B1241" t="s">
-        <v>683</v>
+        <v>1569</v>
       </c>
       <c r="C1241">
         <v>3.5</v>
@@ -17932,10 +17957,10 @@
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="B1242" t="s">
-        <v>683</v>
+        <v>1569</v>
       </c>
       <c r="C1242">
         <v>3.5</v>
@@ -17943,10 +17968,10 @@
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="B1243" t="s">
-        <v>683</v>
+        <v>1569</v>
       </c>
       <c r="C1243">
         <v>3.5</v>
@@ -17954,10 +17979,10 @@
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="B1244" t="s">
-        <v>683</v>
+        <v>1569</v>
       </c>
       <c r="C1244">
         <v>3.5</v>
@@ -17965,10 +17990,10 @@
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="B1245" t="s">
-        <v>683</v>
+        <v>1569</v>
       </c>
       <c r="C1245">
         <v>3.5</v>
@@ -17976,10 +18001,10 @@
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="B1246" t="s">
-        <v>683</v>
+        <v>1569</v>
       </c>
       <c r="C1246">
         <v>3.5</v>
@@ -17987,10 +18012,10 @@
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="B1247" t="s">
-        <v>683</v>
+        <v>1569</v>
       </c>
       <c r="C1247">
         <v>3.5</v>
@@ -17998,10 +18023,10 @@
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="B1248" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1248">
         <v>3.5</v>
@@ -18009,10 +18034,10 @@
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="B1249" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1249">
         <v>3.5</v>
@@ -18020,10 +18045,10 @@
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="B1250" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1250">
         <v>3.5</v>
@@ -18031,10 +18056,10 @@
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="B1251" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1251">
         <v>3.5</v>
@@ -18042,10 +18067,10 @@
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="B1252" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1252">
         <v>3.5</v>
@@ -18053,10 +18078,10 @@
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="B1253" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1253">
         <v>3.5</v>
@@ -18064,10 +18089,10 @@
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="B1254" t="s">
-        <v>684</v>
+        <v>1570</v>
       </c>
       <c r="C1254">
         <v>3.5</v>
@@ -18075,10 +18100,10 @@
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="B1255" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1255">
         <v>3.5</v>
@@ -18086,10 +18111,10 @@
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="B1256" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1256">
         <v>3.5</v>
@@ -18097,10 +18122,10 @@
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="B1257" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1257">
         <v>3.5</v>
@@ -18108,10 +18133,10 @@
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="B1258" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1258">
         <v>3.5</v>
@@ -18119,10 +18144,10 @@
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="B1259" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1259">
         <v>3.5</v>
@@ -18130,10 +18155,10 @@
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="B1260" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1260">
         <v>3.5</v>
@@ -18141,10 +18166,10 @@
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="B1261" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1261">
         <v>3.5</v>
@@ -18152,10 +18177,10 @@
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="B1262" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1262">
         <v>3.5</v>
@@ -18163,10 +18188,10 @@
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="B1263" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1263">
         <v>3.5</v>
@@ -18174,10 +18199,10 @@
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="B1264" t="s">
-        <v>679</v>
+        <v>1565</v>
       </c>
       <c r="C1264">
         <v>3.5</v>
@@ -18185,10 +18210,10 @@
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="B1265" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1265">
         <v>3.5</v>
@@ -18196,10 +18221,10 @@
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="B1266" t="s">
-        <v>678</v>
+        <v>1564</v>
       </c>
       <c r="C1266">
         <v>3.5</v>
@@ -18218,7 +18243,7 @@
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B1268" t="s">
         <v>615</v>
@@ -18240,7 +18265,7 @@
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="C1270">
         <v>3.5</v>
@@ -18248,7 +18273,7 @@
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="B1271" t="s">
         <v>457</v>
@@ -18257,7 +18282,7 @@
         <v>3.5</v>
       </c>
       <c r="D1271" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
@@ -18284,16 +18309,16 @@
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="B1274" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C1274">
         <v>3.5</v>
       </c>
       <c r="D1274" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
@@ -18309,7 +18334,7 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="B1276" t="s">
         <v>231</v>
@@ -18320,7 +18345,7 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="C1277">
         <v>3.5</v>
@@ -18361,7 +18386,7 @@
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="C1281">
         <v>3.5</v>
@@ -18446,7 +18471,7 @@
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="C1289">
         <v>3.5</v>
@@ -18454,7 +18479,7 @@
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="C1290">
         <v>3.5</v>
@@ -18462,7 +18487,7 @@
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="C1291">
         <v>3.5</v>
@@ -18470,7 +18495,7 @@
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="C1292">
         <v>3.5</v>
@@ -18489,10 +18514,10 @@
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="B1294" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C1294">
         <v>3.5</v>
@@ -18511,7 +18536,7 @@
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="B1296" t="s">
         <v>523</v>
@@ -18522,7 +18547,7 @@
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="B1297" t="s">
         <v>36</v>
@@ -18599,7 +18624,7 @@
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="B1304" t="s">
         <v>472</v>
@@ -18610,7 +18635,7 @@
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="C1305">
         <v>3.5</v>
@@ -18618,7 +18643,7 @@
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="C1306">
         <v>3.5</v>
@@ -18626,10 +18651,10 @@
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="B1307" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C1307">
         <v>3.5</v>
@@ -18648,7 +18673,7 @@
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="C1309">
         <v>3.5</v>
@@ -18656,7 +18681,7 @@
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="C1310">
         <v>3.5</v>
@@ -18664,7 +18689,7 @@
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="C1311">
         <v>3.5</v>
@@ -18672,7 +18697,7 @@
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="C1312">
         <v>3.5</v>
@@ -18680,7 +18705,7 @@
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="C1313">
         <v>3.5</v>
@@ -18710,7 +18735,7 @@
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="C1316">
         <v>3.5</v>
@@ -18740,7 +18765,7 @@
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="C1319">
         <v>3.5</v>
@@ -18748,7 +18773,7 @@
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="C1320">
         <v>3.5</v>
@@ -18756,7 +18781,7 @@
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="B1321" t="s">
         <v>565</v>
@@ -18800,7 +18825,7 @@
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="B1325" t="s">
         <v>37</v>
@@ -18822,10 +18847,10 @@
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="B1327" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C1327">
         <v>3.5</v>
@@ -18833,7 +18858,7 @@
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="C1328">
         <v>3.5</v>
@@ -18841,7 +18866,7 @@
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="C1329">
         <v>3.5</v>
@@ -18871,7 +18896,7 @@
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="C1332">
         <v>3.5</v>
@@ -18879,7 +18904,7 @@
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="C1333">
         <v>3.5</v>
@@ -18887,7 +18912,7 @@
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="C1334">
         <v>3.5</v>
@@ -18895,7 +18920,7 @@
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="C1335">
         <v>3.5</v>
@@ -18914,7 +18939,7 @@
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="C1337">
         <v>3.5</v>
@@ -18922,7 +18947,7 @@
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="B1338" t="s">
         <v>79</v>
@@ -18931,7 +18956,7 @@
         <v>3.5</v>
       </c>
       <c r="D1338" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
@@ -18947,7 +18972,7 @@
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="B1340" t="s">
         <v>475</v>
@@ -18958,7 +18983,7 @@
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="B1341" t="s">
         <v>475</v>
@@ -18969,7 +18994,7 @@
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="C1342">
         <v>3.5</v>
@@ -18977,7 +19002,7 @@
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="B1343" t="s">
         <v>475</v>
@@ -18988,7 +19013,7 @@
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="B1344" t="s">
         <v>475</v>
@@ -18999,7 +19024,7 @@
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="C1345">
         <v>3.5</v>
@@ -19029,10 +19054,10 @@
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="B1348" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C1348">
         <v>3.5</v>
@@ -19051,7 +19076,7 @@
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="B1350" t="s">
         <v>546</v>
@@ -19062,7 +19087,7 @@
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="B1351" t="s">
         <v>546</v>
@@ -19073,7 +19098,7 @@
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="C1352">
         <v>3.5</v>
@@ -19081,7 +19106,7 @@
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="C1353">
         <v>3.5</v>
@@ -19089,7 +19114,7 @@
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="C1354">
         <v>3.6</v>
@@ -19097,7 +19122,7 @@
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="B1355" t="s">
         <v>87</v>
@@ -19108,7 +19133,7 @@
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="B1356" t="s">
         <v>88</v>
@@ -19119,7 +19144,7 @@
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="C1357">
         <v>3.6</v>
@@ -19127,7 +19152,7 @@
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="B1358" t="s">
         <v>96</v>
@@ -19138,7 +19163,7 @@
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="B1359" t="s">
         <v>114</v>
@@ -19149,10 +19174,10 @@
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="B1360" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="C1360">
         <v>3.6</v>
@@ -19160,7 +19185,7 @@
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="B1361" t="s">
         <v>529</v>
@@ -19171,7 +19196,7 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="C1362">
         <v>3.6</v>
@@ -19179,7 +19204,7 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="B1363" t="s">
         <v>130</v>
@@ -19190,7 +19215,7 @@
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="C1364">
         <v>3.6</v>
@@ -19198,7 +19223,7 @@
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="C1365">
         <v>3.6</v>
@@ -19206,7 +19231,7 @@
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="C1366">
         <v>3.6</v>
@@ -19214,7 +19239,7 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="C1367">
         <v>3.6</v>
@@ -19222,7 +19247,7 @@
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="C1368">
         <v>3.6</v>
@@ -19230,7 +19255,7 @@
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="B1369" t="s">
         <v>624</v>
@@ -19241,7 +19266,7 @@
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="B1370" t="s">
         <v>531</v>
@@ -19252,7 +19277,7 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="B1371" t="s">
         <v>626</v>
@@ -19263,7 +19288,7 @@
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="B1372" t="s">
         <v>627</v>
@@ -19274,10 +19299,10 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="B1373" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="C1373">
         <v>3.6</v>
@@ -19285,7 +19310,7 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="C1374">
         <v>3.6</v>
@@ -19293,7 +19318,7 @@
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="B1375" t="s">
         <v>533</v>
@@ -19304,7 +19329,7 @@
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="C1376">
         <v>3.6</v>
@@ -19312,7 +19337,7 @@
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="B1377" t="s">
         <v>630</v>
@@ -19323,7 +19348,7 @@
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="C1378">
         <v>3.6</v>
@@ -19331,7 +19356,7 @@
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="C1379">
         <v>3.6</v>
@@ -19339,10 +19364,10 @@
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="B1380" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C1380">
         <v>3.6</v>
@@ -19350,7 +19375,7 @@
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="B1381" t="s">
         <v>631</v>
@@ -19361,7 +19386,7 @@
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1382" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="B1382" t="s">
         <v>534</v>
@@ -19372,7 +19397,7 @@
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="B1383" t="s">
         <v>535</v>
@@ -19383,7 +19408,7 @@
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="C1384">
         <v>3.6</v>
@@ -19391,7 +19416,7 @@
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1385" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="B1385" t="s">
         <v>632</v>
@@ -19402,7 +19427,7 @@
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="B1386" t="s">
         <v>536</v>
@@ -19413,7 +19438,7 @@
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="B1387" t="s">
         <v>315</v>
@@ -19424,7 +19449,7 @@
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="B1388" t="s">
         <v>318</v>
@@ -19435,7 +19460,7 @@
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="B1389" t="s">
         <v>344</v>
@@ -19446,7 +19471,7 @@
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="B1390" t="s">
         <v>633</v>
@@ -19457,10 +19482,10 @@
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="B1391" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="C1391">
         <v>3.6</v>
@@ -19468,10 +19493,10 @@
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="B1392" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="C1392">
         <v>3.6</v>
@@ -19479,10 +19504,10 @@
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="B1393" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="C1393">
         <v>3.6</v>
@@ -19490,7 +19515,7 @@
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="C1394">
         <v>3.6</v>
@@ -19498,7 +19523,7 @@
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="B1395" t="s">
         <v>486</v>
@@ -19509,7 +19534,7 @@
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="C1396">
         <v>3.6</v>
@@ -19517,7 +19542,7 @@
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="B1397" t="s">
         <v>538</v>
@@ -19528,7 +19553,7 @@
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="B1398" t="s">
         <v>634</v>
@@ -19539,7 +19564,7 @@
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="C1399">
         <v>3.6</v>
@@ -19547,7 +19572,7 @@
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="C1400">
         <v>3.6</v>
@@ -19555,7 +19580,7 @@
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="B1401" t="s">
         <v>637</v>
@@ -19566,7 +19591,7 @@
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="C1402">
         <v>3.6</v>
@@ -19574,7 +19599,7 @@
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="C1403">
         <v>3.6</v>
@@ -19582,7 +19607,7 @@
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1404" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="B1404" t="s">
         <v>640</v>
@@ -19593,7 +19618,7 @@
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="B1405" t="s">
         <v>540</v>
@@ -19604,7 +19629,7 @@
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="B1406" t="s">
         <v>423</v>
@@ -19615,7 +19640,7 @@
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="B1407" t="s">
         <v>541</v>
@@ -19626,7 +19651,7 @@
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1408" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="C1408">
         <v>3.6</v>
@@ -19634,7 +19659,7 @@
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="B1409" t="s">
         <v>430</v>
@@ -19645,7 +19670,7 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="C1410">
         <v>3.6</v>
@@ -19653,7 +19678,7 @@
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="B1411" t="s">
         <v>643</v>
@@ -19664,7 +19689,7 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="B1412" t="s">
         <v>543</v>
@@ -19675,7 +19700,7 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="C1413">
         <v>3.6</v>
@@ -19683,7 +19708,7 @@
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="B1414" t="s">
         <v>445</v>
@@ -19694,7 +19719,7 @@
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="B1415" t="s">
         <v>544</v>
@@ -19705,7 +19730,7 @@
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="C1416">
         <v>3.6</v>
@@ -19713,7 +19738,7 @@
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="C1417">
         <v>3.6</v>
@@ -19721,7 +19746,7 @@
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="C1418">
         <v>3.6</v>
@@ -19729,7 +19754,7 @@
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="B1419" t="s">
         <v>545</v>
@@ -19740,7 +19765,7 @@
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="B1420" t="s">
         <v>472</v>
@@ -19751,7 +19776,7 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="C1421">
         <v>3.6</v>
@@ -19759,10 +19784,10 @@
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="B1422" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="C1422">
         <v>3.6</v>

--- a/Data/mappings/ei36/ei_iw_mapping.xlsx
+++ b/Data/mappings/ei36/ei_iw_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\ei36\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC7E284-05F8-4EFF-AC20-28E7E7366B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF39440-223C-4A40-834F-593F1444039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1352</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterate="1" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="1571">
   <si>
     <t>iw name</t>
   </si>
@@ -4733,6 +4733,9 @@
   </si>
   <si>
     <t>Transformation, to secondary vegetation</t>
+  </si>
+  <si>
+    <t>Curium-alpha</t>
   </si>
 </sst>
 </file>
@@ -5136,9 +5139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D1352"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5795,6 +5796,9 @@
       <c r="A61" t="s">
         <v>780</v>
       </c>
+      <c r="B61" t="s">
+        <v>780</v>
+      </c>
       <c r="C61" t="s">
         <v>1553</v>
       </c>
@@ -8077,6 +8081,9 @@
       <c r="A284" t="s">
         <v>880</v>
       </c>
+      <c r="B284" t="s">
+        <v>1570</v>
+      </c>
       <c r="C284" t="s">
         <v>1553</v>
       </c>
@@ -10966,7 +10973,7 @@
         <v>990</v>
       </c>
       <c r="B564" t="s">
-        <v>30</v>
+        <v>560</v>
       </c>
       <c r="C564" t="s">
         <v>1553</v>
@@ -11491,7 +11498,7 @@
         <v>513</v>
       </c>
       <c r="B618" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C618" t="s">
         <v>1553</v>
@@ -15382,8 +15389,14 @@
       <c r="A989" t="s">
         <v>1207</v>
       </c>
+      <c r="B989" t="s">
+        <v>503</v>
+      </c>
       <c r="C989" t="s">
         <v>1553</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
@@ -15541,6 +15554,9 @@
       <c r="A1007" t="s">
         <v>1220</v>
       </c>
+      <c r="B1007" t="s">
+        <v>1220</v>
+      </c>
       <c r="C1007" t="s">
         <v>1553</v>
       </c>
@@ -16113,6 +16129,9 @@
       <c r="A1065" t="s">
         <v>1262</v>
       </c>
+      <c r="B1065" t="s">
+        <v>1262</v>
+      </c>
       <c r="C1065" t="s">
         <v>1553</v>
       </c>
@@ -18796,7 +18815,7 @@
         <v>1445</v>
       </c>
       <c r="B1320" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C1320" t="s">
         <v>1553</v>
@@ -18900,7 +18919,7 @@
         <v>525</v>
       </c>
       <c r="B1330" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1330" t="s">
         <v>1553</v>

--- a/Data/mappings/ei36/ei_iw_mapping.xlsx
+++ b/Data/mappings/ei36/ei_iw_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\ei36\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF39440-223C-4A40-834F-593F1444039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CDAE8B-E11D-45E3-9685-9B04A7A81148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4817,9 +4817,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4857,9 +4857,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4892,26 +4892,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4944,26 +4927,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5139,7 +5105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1247" workbookViewId="0">
+      <selection activeCell="A1259" sqref="A1259"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13481,7 +13449,7 @@
         <v>1113</v>
       </c>
       <c r="B807" t="s">
-        <v>1547</v>
+        <v>1138</v>
       </c>
       <c r="C807" t="s">
         <v>1553</v>
@@ -13492,7 +13460,7 @@
         <v>1114</v>
       </c>
       <c r="B808" t="s">
-        <v>1547</v>
+        <v>1138</v>
       </c>
       <c r="C808" t="s">
         <v>1553</v>
@@ -13635,7 +13603,7 @@
         <v>1127</v>
       </c>
       <c r="B821" t="s">
-        <v>1547</v>
+        <v>1138</v>
       </c>
       <c r="C821" t="s">
         <v>1553</v>
@@ -13756,7 +13724,7 @@
         <v>1138</v>
       </c>
       <c r="B832" t="s">
-        <v>1546</v>
+        <v>1138</v>
       </c>
       <c r="C832" t="s">
         <v>1553</v>
@@ -17243,7 +17211,7 @@
         <v>1327</v>
       </c>
       <c r="B1173" t="s">
-        <v>1556</v>
+        <v>1352</v>
       </c>
       <c r="C1173" t="s">
         <v>1553</v>
@@ -17254,7 +17222,7 @@
         <v>1328</v>
       </c>
       <c r="B1174" t="s">
-        <v>1556</v>
+        <v>1352</v>
       </c>
       <c r="C1174" t="s">
         <v>1553</v>
@@ -17397,7 +17365,7 @@
         <v>1341</v>
       </c>
       <c r="B1187" t="s">
-        <v>1556</v>
+        <v>1352</v>
       </c>
       <c r="C1187" t="s">
         <v>1553</v>
@@ -17518,7 +17486,7 @@
         <v>1352</v>
       </c>
       <c r="B1198" t="s">
-        <v>1555</v>
+        <v>1352</v>
       </c>
       <c r="C1198" t="s">
         <v>1553</v>
@@ -17903,7 +17871,7 @@
         <v>1387</v>
       </c>
       <c r="B1233" t="s">
-        <v>1564</v>
+        <v>1412</v>
       </c>
       <c r="C1233" t="s">
         <v>1553</v>
@@ -17914,7 +17882,7 @@
         <v>1388</v>
       </c>
       <c r="B1234" t="s">
-        <v>1564</v>
+        <v>1412</v>
       </c>
       <c r="C1234" t="s">
         <v>1553</v>
@@ -18057,7 +18025,7 @@
         <v>1401</v>
       </c>
       <c r="B1247" t="s">
-        <v>1564</v>
+        <v>1412</v>
       </c>
       <c r="C1247" t="s">
         <v>1553</v>
@@ -18178,7 +18146,7 @@
         <v>1412</v>
       </c>
       <c r="B1258" t="s">
-        <v>1563</v>
+        <v>1412</v>
       </c>
       <c r="C1258" t="s">
         <v>1553</v>
